--- a/resources/count_implementation_rate.xlsx
+++ b/resources/count_implementation_rate.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,260 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Projects</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Domains</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>EclipseLink</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>JDBC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>mybatis</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Hibernate</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>jOOQ</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>JPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Activiti</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>automation</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0122</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0129</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>che</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>software development</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0154</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0414</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pinpoint</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>monitoring</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>skywalking</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>monitoring</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>wildfly</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>infrastructure management</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0121</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0382</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>storm</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>hpc</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resources/count_implementation_rate.xlsx
+++ b/resources/count_implementation_rate.xlsx
@@ -46,933 +46,933 @@
     <t>Activiti</t>
   </si>
   <si>
+    <t>airbyte</t>
+  </si>
+  <si>
+    <t>airsonic</t>
+  </si>
+  <si>
+    <t>spring-cloud-alibaba</t>
+  </si>
+  <si>
+    <t>nacos</t>
+  </si>
+  <si>
+    <t>alluxio</t>
+  </si>
+  <si>
+    <t>VirtualXposed</t>
+  </si>
+  <si>
+    <t>angel</t>
+  </si>
+  <si>
+    <t>Anki-Android</t>
+  </si>
+  <si>
+    <t>AntennaPod</t>
+  </si>
+  <si>
+    <t>AnySoftKeyboard</t>
+  </si>
+  <si>
+    <t>cyclops</t>
+  </si>
+  <si>
+    <t>dubbo</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
     <t>skywalking</t>
   </si>
   <si>
+    <t>hadoop</t>
+  </si>
+  <si>
+    <t>rocketmq</t>
+  </si>
+  <si>
+    <t>shardingsphere-elasticjob</t>
+  </si>
+  <si>
+    <t>zookeeper</t>
+  </si>
+  <si>
     <t>storm</t>
   </si>
   <si>
+    <t>incubator-dolphinscheduler</t>
+  </si>
+  <si>
+    <t>zeppelin</t>
+  </si>
+  <si>
+    <t>pulsar</t>
+  </si>
+  <si>
+    <t>tomcat</t>
+  </si>
+  <si>
+    <t>incubator-heron</t>
+  </si>
+  <si>
+    <t>jmeter</t>
+  </si>
+  <si>
+    <t>beam</t>
+  </si>
+  <si>
+    <t>incubator-pinot</t>
+  </si>
+  <si>
+    <t>nutch</t>
+  </si>
+  <si>
+    <t>hudi</t>
+  </si>
+  <si>
+    <t>servicecomb-pack</t>
+  </si>
+  <si>
+    <t>maven</t>
+  </si>
+  <si>
+    <t>flume</t>
+  </si>
+  <si>
+    <t>mahout</t>
+  </si>
+  <si>
+    <t>nifi</t>
+  </si>
+  <si>
+    <t>activemq</t>
+  </si>
+  <si>
+    <t>avro</t>
+  </si>
+  <si>
+    <t>iceberg</t>
+  </si>
+  <si>
+    <t>parquet-mr</t>
+  </si>
+  <si>
+    <t>bookkeeper</t>
+  </si>
+  <si>
+    <t>ambari</t>
+  </si>
+  <si>
+    <t>tika</t>
+  </si>
+  <si>
+    <t>netbeans</t>
+  </si>
+  <si>
+    <t>httpcomponents-client</t>
+  </si>
+  <si>
+    <t>cas</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>AsciidocFX</t>
+  </si>
+  <si>
+    <t>commafeed</t>
+  </si>
+  <si>
+    <t>simplenote-android</t>
+  </si>
+  <si>
+    <t>azkaban</t>
+  </si>
+  <si>
+    <t>mybatis-plus</t>
+  </si>
+  <si>
+    <t>bazel</t>
+  </si>
+  <si>
+    <t>bc-java</t>
+  </si>
+  <si>
+    <t>bigbluebutton</t>
+  </si>
+  <si>
+    <t>bisq</t>
+  </si>
+  <si>
+    <t>bitcoin-wallet</t>
+  </si>
+  <si>
+    <t>keepassdroid</t>
+  </si>
+  <si>
+    <t>gatk</t>
+  </si>
+  <si>
+    <t>btrace</t>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>BuildCraft</t>
+  </si>
+  <si>
+    <t>Bukkit</t>
+  </si>
+  <si>
+    <t>baritone</t>
+  </si>
+  <si>
+    <t>zeebe</t>
+  </si>
+  <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>Android-IMSI-Catcher-Detector</t>
+  </si>
+  <si>
+    <t>cgeo</t>
+  </si>
+  <si>
+    <t>checkstyle</t>
+  </si>
+  <si>
+    <t>material-theme-jetbrains</t>
+  </si>
+  <si>
+    <t>libsvm</t>
+  </si>
+  <si>
+    <t>lucida</t>
+  </si>
+  <si>
+    <t>classgraph</t>
+  </si>
+  <si>
+    <t>uaa</t>
+  </si>
+  <si>
+    <t>spring-boot-admin</t>
+  </si>
+  <si>
+    <t>gnucash-android</t>
+  </si>
+  <si>
+    <t>Recaf</t>
+  </si>
+  <si>
+    <t>schema-registry</t>
+  </si>
+  <si>
+    <t>kafka-rest</t>
+  </si>
+  <si>
+    <t>connectbot</t>
+  </si>
+  <si>
+    <t>cryptomator</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>apollo</t>
+  </si>
+  <si>
+    <t>cucumber-jvm</t>
+  </si>
+  <si>
+    <t>dbeaver</t>
+  </si>
+  <si>
+    <t>debezium</t>
+  </si>
+  <si>
+    <t>dl4j-examples</t>
+  </si>
+  <si>
+    <t>spotless</t>
+  </si>
+  <si>
+    <t>docker-java</t>
+  </si>
+  <si>
+    <t>soul</t>
+  </si>
+  <si>
+    <t>ebean</t>
+  </si>
+  <si>
     <t>che</t>
   </si>
   <si>
+    <t>jetty.project</t>
+  </si>
+  <si>
+    <t>openj9</t>
+  </si>
+  <si>
+    <t>vert.x</t>
+  </si>
+  <si>
+    <t>ehcache3</t>
+  </si>
+  <si>
+    <t>elasticsearch-hadoop</t>
+  </si>
+  <si>
+    <t>embulk</t>
+  </si>
+  <si>
+    <t>WorldEdit</t>
+  </si>
+  <si>
+    <t>eclim</t>
+  </si>
+  <si>
+    <t>Etar-Calendar</t>
+  </si>
+  <si>
+    <t>docker-maven-plugin</t>
+  </si>
+  <si>
+    <t>buck</t>
+  </si>
+  <si>
+    <t>jackson-databind</t>
+  </si>
+  <si>
+    <t>jackson-core</t>
+  </si>
+  <si>
+    <t>Omni-Notes</t>
+  </si>
+  <si>
+    <t>find-sec-bugs</t>
+  </si>
+  <si>
+    <t>search-guard</t>
+  </si>
+  <si>
+    <t>flowable-engine</t>
+  </si>
+  <si>
+    <t>flutter-intellij</t>
+  </si>
+  <si>
+    <t>flyway</t>
+  </si>
+  <si>
+    <t>open-event-organizer-android</t>
+  </si>
+  <si>
+    <t>susi_server</t>
+  </si>
+  <si>
+    <t>phimpme-android</t>
+  </si>
+  <si>
+    <t>pslab-android</t>
+  </si>
+  <si>
+    <t>Gadgetbridge</t>
+  </si>
+  <si>
+    <t>FBReaderJ</t>
+  </si>
+  <si>
+    <t>geoserver</t>
+  </si>
+  <si>
+    <t>gephi</t>
+  </si>
+  <si>
+    <t>Geyser</t>
+  </si>
+  <si>
+    <t>git-commit-id-maven-plugin</t>
+  </si>
+  <si>
+    <t>gitblit</t>
+  </si>
+  <si>
+    <t>Glowstone</t>
+  </si>
+  <si>
+    <t>guacamole-client</t>
+  </si>
+  <si>
+    <t>gocd</t>
+  </si>
+  <si>
+    <t>ExoPlayer</t>
+  </si>
+  <si>
+    <t>j2objc</t>
+  </si>
+  <si>
+    <t>error-prone</t>
+  </si>
+  <si>
+    <t>nomulus</t>
+  </si>
+  <si>
+    <t>copybara</t>
+  </si>
+  <si>
+    <t>jib</t>
+  </si>
+  <si>
+    <t>graphhopper</t>
+  </si>
+  <si>
+    <t>jsprit</t>
+  </si>
+  <si>
+    <t>gravitee-gateway</t>
+  </si>
+  <si>
+    <t>graylog2-server</t>
+  </si>
+  <si>
+    <t>markor</t>
+  </si>
+  <si>
+    <t>h2o-3</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>hawtio</t>
+  </si>
+  <si>
+    <t>pitest</t>
+  </si>
+  <si>
+    <t>materialistic</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>HMCL</t>
+  </si>
+  <si>
+    <t>i2p.i2p</t>
+  </si>
+  <si>
+    <t>Apktool</t>
+  </si>
+  <si>
+    <t>Openfire</t>
+  </si>
+  <si>
+    <t>Conversations</t>
+  </si>
+  <si>
+    <t>heritrix3</t>
+  </si>
+  <si>
+    <t>iri</t>
+  </si>
+  <si>
+    <t>uhabits</t>
+  </si>
+  <si>
+    <t>cyberduck</t>
+  </si>
+  <si>
+    <t>jabref</t>
+  </si>
+  <si>
+    <t>mockserver</t>
+  </si>
+  <si>
+    <t>mapdb</t>
+  </si>
+  <si>
+    <t>javamelody</t>
+  </si>
+  <si>
+    <t>sms-backup-plus</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>blueocean-plugin</t>
+  </si>
+  <si>
+    <t>kubernetes-plugin</t>
+  </si>
+  <si>
+    <t>gitlab-plugin</t>
+  </si>
+  <si>
+    <t>DependencyCheck</t>
+  </si>
+  <si>
+    <t>smali</t>
+  </si>
+  <si>
+    <t>intellij-community</t>
+  </si>
+  <si>
+    <t>ideavim</t>
+  </si>
+  <si>
+    <t>MPS</t>
+  </si>
+  <si>
+    <t>jpexs-decompiler</t>
+  </si>
+  <si>
+    <t>jitsi-videobridge</t>
+  </si>
+  <si>
+    <t>jitsi</t>
+  </si>
+  <si>
+    <t>zotfile</t>
+  </si>
+  <si>
+    <t>jmonkeyengine</t>
+  </si>
+  <si>
+    <t>jmxtrans</t>
+  </si>
+  <si>
+    <t>jsonschema2pojo</t>
+  </si>
+  <si>
+    <t>JSqlParser</t>
+  </si>
+  <si>
+    <t>tablesaw</t>
+  </si>
+  <si>
+    <t>FastHub</t>
+  </si>
+  <si>
+    <t>k-9</t>
+  </si>
+  <si>
+    <t>kaa</t>
+  </si>
+  <si>
+    <t>Phonograph</t>
+  </si>
+  <si>
+    <t>phpinspectionsea</t>
+  </si>
+  <si>
+    <t>grobid</t>
+  </si>
+  <si>
+    <t>keycloak</t>
+  </si>
+  <si>
+    <t>android-oss</t>
+  </si>
+  <si>
+    <t>drools</t>
+  </si>
+  <si>
+    <t>optaplanner</t>
+  </si>
+  <si>
+    <t>jbpm</t>
+  </si>
+  <si>
+    <t>killbill</t>
+  </si>
+  <si>
+    <t>intellij-elixir</t>
+  </si>
+  <si>
+    <t>languagetool</t>
+  </si>
+  <si>
+    <t>Lawnchair</t>
+  </si>
+  <si>
+    <t>lbry-android</t>
+  </si>
+  <si>
+    <t>liferay-portal</t>
+  </si>
+  <si>
+    <t>ambry</t>
+  </si>
+  <si>
+    <t>liquibase</t>
+  </si>
+  <si>
+    <t>LuckPerms</t>
+  </si>
+  <si>
+    <t>NetGuard</t>
+  </si>
+  <si>
+    <t>mage</t>
+  </si>
+  <si>
+    <t>mapstruct</t>
+  </si>
+  <si>
+    <t>marytts</t>
+  </si>
+  <si>
+    <t>material-components-android</t>
+  </si>
+  <si>
+    <t>gpslogger</t>
+  </si>
+  <si>
+    <t>micrometer</t>
+  </si>
+  <si>
+    <t>malmo</t>
+  </si>
+  <si>
+    <t>MinecraftForge</t>
+  </si>
+  <si>
+    <t>OpenID-Connect-Java-Spring-Server</t>
+  </si>
+  <si>
+    <t>qksms</t>
+  </si>
+  <si>
+    <t>Terasology</t>
+  </si>
+  <si>
+    <t>focus-android</t>
+  </si>
+  <si>
+    <t>msgpack-java</t>
+  </si>
+  <si>
     <t>pinpoint</t>
   </si>
   <si>
+    <t>ngrinder</t>
+  </si>
+  <si>
+    <t>KISS</t>
+  </si>
+  <si>
+    <t>eureka</t>
+  </si>
+  <si>
+    <t>conductor</t>
+  </si>
+  <si>
+    <t>genie</t>
+  </si>
+  <si>
+    <t>cqengine</t>
+  </si>
+  <si>
+    <t>open-keychain</t>
+  </si>
+  <si>
+    <t>openapi-generator</t>
+  </si>
+  <si>
+    <t>Chronicle-Queue</t>
+  </si>
+  <si>
+    <t>Chronicle-Map</t>
+  </si>
+  <si>
+    <t>OpenRefine</t>
+  </si>
+  <si>
+    <t>BIMserver</t>
+  </si>
+  <si>
+    <t>OpenTripPlanner</t>
+  </si>
+  <si>
+    <t>openvidu</t>
+  </si>
+  <si>
+    <t>zipkin</t>
+  </si>
+  <si>
+    <t>opengrok</t>
+  </si>
+  <si>
+    <t>visualvm</t>
+  </si>
+  <si>
+    <t>orgzly-android</t>
+  </si>
+  <si>
+    <t>oryx</t>
+  </si>
+  <si>
+    <t>oshi</t>
+  </si>
+  <si>
+    <t>OsmAnd</t>
+  </si>
+  <si>
+    <t>Osmand</t>
+  </si>
+  <si>
+    <t>osmdroid</t>
+  </si>
+  <si>
+    <t>pac4j</t>
+  </si>
+  <si>
+    <t>pentaho-kettle</t>
+  </si>
+  <si>
+    <t>keepass2android</t>
+  </si>
+  <si>
+    <t>secor</t>
+  </si>
+  <si>
+    <t>pmd</t>
+  </si>
+  <si>
+    <t>PocketHub</t>
+  </si>
+  <si>
+    <t>pravega</t>
+  </si>
+  <si>
+    <t>presto</t>
+  </si>
+  <si>
+    <t>processing</t>
+  </si>
+  <si>
+    <t>psi-probe</t>
+  </si>
+  <si>
+    <t>storio</t>
+  </si>
+  <si>
+    <t>serve</t>
+  </si>
+  <si>
+    <t>slf4j</t>
+  </si>
+  <si>
+    <t>RedReader</t>
+  </si>
+  <si>
+    <t>quran_android</t>
+  </si>
+  <si>
+    <t>Rajawali</t>
+  </si>
+  <si>
+    <t>reactor-netty</t>
+  </si>
+  <si>
+    <t>aeron</t>
+  </si>
+  <si>
+    <t>simple-binary-encoding</t>
+  </si>
+  <si>
+    <t>redisson</t>
+  </si>
+  <si>
+    <t>xabber-android</t>
+  </si>
+  <si>
+    <t>rest-assured</t>
+  </si>
+  <si>
+    <t>ripme</t>
+  </si>
+  <si>
+    <t>rstudio</t>
+  </si>
+  <si>
+    <t>runelite</t>
+  </si>
+  <si>
+    <t>ics-openvpn</t>
+  </si>
+  <si>
+    <t>scouter</t>
+  </si>
+  <si>
+    <t>Signal-Android</t>
+  </si>
+  <si>
+    <t>android-maven-plugin</t>
+  </si>
+  <si>
+    <t>jadx</t>
+  </si>
+  <si>
+    <t>gh4a</t>
+  </si>
+  <si>
+    <t>autopsy</t>
+  </si>
+  <si>
+    <t>sonarqube</t>
+  </si>
+  <si>
+    <t>nokogiri</t>
+  </si>
+  <si>
+    <t>speedment</t>
+  </si>
+  <si>
+    <t>BungeeCord</t>
+  </si>
+  <si>
+    <t>SpongeAPI</t>
+  </si>
+  <si>
+    <t>SpongeForge</t>
+  </si>
+  <si>
+    <t>spotbugs</t>
+  </si>
+  <si>
+    <t>helios</t>
+  </si>
+  <si>
+    <t>spring-cloud-netflix</t>
+  </si>
+  <si>
+    <t>spring-cloud-gateway</t>
+  </si>
+  <si>
+    <t>spring-cloud-config</t>
+  </si>
+  <si>
+    <t>spring-cloud-sleuth</t>
+  </si>
+  <si>
+    <t>okhttp</t>
+  </si>
+  <si>
+    <t>retrofit</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>keywhiz</t>
+  </si>
+  <si>
+    <t>stagemonitor</t>
+  </si>
+  <si>
+    <t>strimzi-kafka-operator</t>
+  </si>
+  <si>
+    <t>swagger-core</t>
+  </si>
+  <si>
+    <t>syncany</t>
+  </si>
+  <si>
+    <t>syncthing-android</t>
+  </si>
+  <si>
+    <t>synthea</t>
+  </si>
+  <si>
+    <t>AmazeFileManager</t>
+  </si>
+  <si>
+    <t>teammates</t>
+  </si>
+  <si>
+    <t>onedev</t>
+  </si>
+  <si>
+    <t>thingsboard</t>
+  </si>
+  <si>
+    <t>thymeleaf</t>
+  </si>
+  <si>
+    <t>Shuttle</t>
+  </si>
+  <si>
+    <t>wiremock</t>
+  </si>
+  <si>
+    <t>amidst</t>
+  </si>
+  <si>
+    <t>traccar</t>
+  </si>
+  <si>
+    <t>java-tron</t>
+  </si>
+  <si>
+    <t>beakerx</t>
+  </si>
+  <si>
+    <t>afwall</t>
+  </si>
+  <si>
+    <t>undertow</t>
+  </si>
+  <si>
+    <t>LeafPic</t>
+  </si>
+  <si>
+    <t>UniversalMediaServer</t>
+  </si>
+  <si>
+    <t>validator</t>
+  </si>
+  <si>
+    <t>modeldb</t>
+  </si>
+  <si>
+    <t>vespa</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>flexmark-java</t>
+  </si>
+  <si>
+    <t>epubcheck</t>
+  </si>
+  <si>
+    <t>dynmap</t>
+  </si>
+  <si>
+    <t>StreetComplete</t>
+  </si>
+  <si>
+    <t>apps-android-wikipedia</t>
+  </si>
+  <si>
     <t>wildfly</t>
   </si>
   <si>
-    <t>airbyte</t>
-  </si>
-  <si>
-    <t>airsonic</t>
-  </si>
-  <si>
-    <t>spring-cloud-alibaba</t>
-  </si>
-  <si>
-    <t>nacos</t>
-  </si>
-  <si>
-    <t>alluxio</t>
-  </si>
-  <si>
-    <t>VirtualXposed</t>
-  </si>
-  <si>
-    <t>angel</t>
-  </si>
-  <si>
-    <t>Anki-Android</t>
-  </si>
-  <si>
-    <t>AntennaPod</t>
-  </si>
-  <si>
-    <t>AnySoftKeyboard</t>
-  </si>
-  <si>
-    <t>cyclops</t>
-  </si>
-  <si>
-    <t>dubbo</t>
-  </si>
-  <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>hadoop</t>
-  </si>
-  <si>
-    <t>rocketmq</t>
-  </si>
-  <si>
-    <t>shardingsphere-elasticjob</t>
-  </si>
-  <si>
-    <t>zookeeper</t>
-  </si>
-  <si>
-    <t>incubator-dolphinscheduler</t>
-  </si>
-  <si>
-    <t>zeppelin</t>
-  </si>
-  <si>
-    <t>pulsar</t>
-  </si>
-  <si>
-    <t>tomcat</t>
-  </si>
-  <si>
-    <t>incubator-heron</t>
-  </si>
-  <si>
-    <t>jmeter</t>
-  </si>
-  <si>
-    <t>beam</t>
-  </si>
-  <si>
-    <t>incubator-pinot</t>
-  </si>
-  <si>
-    <t>nutch</t>
-  </si>
-  <si>
-    <t>hudi</t>
-  </si>
-  <si>
-    <t>servicecomb-pack</t>
-  </si>
-  <si>
-    <t>maven</t>
-  </si>
-  <si>
-    <t>flume</t>
-  </si>
-  <si>
-    <t>mahout</t>
-  </si>
-  <si>
-    <t>nifi</t>
-  </si>
-  <si>
-    <t>activemq</t>
-  </si>
-  <si>
-    <t>avro</t>
-  </si>
-  <si>
-    <t>iceberg</t>
-  </si>
-  <si>
-    <t>parquet-mr</t>
-  </si>
-  <si>
-    <t>bookkeeper</t>
-  </si>
-  <si>
-    <t>ambari</t>
-  </si>
-  <si>
-    <t>tika</t>
-  </si>
-  <si>
-    <t>netbeans</t>
-  </si>
-  <si>
-    <t>httpcomponents-client</t>
-  </si>
-  <si>
-    <t>cas</t>
-  </si>
-  <si>
-    <t>Arduino</t>
-  </si>
-  <si>
-    <t>AsciidocFX</t>
-  </si>
-  <si>
-    <t>commafeed</t>
-  </si>
-  <si>
-    <t>simplenote-android</t>
-  </si>
-  <si>
-    <t>azkaban</t>
-  </si>
-  <si>
-    <t>mybatis-plus</t>
-  </si>
-  <si>
-    <t>bazel</t>
-  </si>
-  <si>
-    <t>bc-java</t>
-  </si>
-  <si>
-    <t>bigbluebutton</t>
-  </si>
-  <si>
-    <t>bisq</t>
-  </si>
-  <si>
-    <t>bitcoin-wallet</t>
-  </si>
-  <si>
-    <t>keepassdroid</t>
-  </si>
-  <si>
-    <t>gatk</t>
-  </si>
-  <si>
-    <t>btrace</t>
-  </si>
-  <si>
-    <t>portfolio</t>
-  </si>
-  <si>
-    <t>BuildCraft</t>
-  </si>
-  <si>
-    <t>Bukkit</t>
-  </si>
-  <si>
-    <t>baritone</t>
-  </si>
-  <si>
-    <t>zeebe</t>
-  </si>
-  <si>
-    <t>Slide</t>
-  </si>
-  <si>
-    <t>Android-IMSI-Catcher-Detector</t>
-  </si>
-  <si>
-    <t>cgeo</t>
-  </si>
-  <si>
-    <t>checkstyle</t>
-  </si>
-  <si>
-    <t>material-theme-jetbrains</t>
-  </si>
-  <si>
-    <t>libsvm</t>
-  </si>
-  <si>
-    <t>lucida</t>
-  </si>
-  <si>
-    <t>classgraph</t>
-  </si>
-  <si>
-    <t>uaa</t>
-  </si>
-  <si>
-    <t>spring-boot-admin</t>
-  </si>
-  <si>
-    <t>gnucash-android</t>
-  </si>
-  <si>
-    <t>Recaf</t>
-  </si>
-  <si>
-    <t>schema-registry</t>
-  </si>
-  <si>
-    <t>kafka-rest</t>
-  </si>
-  <si>
-    <t>connectbot</t>
-  </si>
-  <si>
-    <t>cryptomator</t>
-  </si>
-  <si>
-    <t>android</t>
-  </si>
-  <si>
-    <t>apollo</t>
-  </si>
-  <si>
-    <t>cucumber-jvm</t>
-  </si>
-  <si>
-    <t>dbeaver</t>
-  </si>
-  <si>
-    <t>debezium</t>
-  </si>
-  <si>
-    <t>dl4j-examples</t>
-  </si>
-  <si>
-    <t>spotless</t>
-  </si>
-  <si>
-    <t>docker-java</t>
-  </si>
-  <si>
-    <t>soul</t>
-  </si>
-  <si>
-    <t>ebean</t>
-  </si>
-  <si>
-    <t>jetty.project</t>
-  </si>
-  <si>
-    <t>openj9</t>
-  </si>
-  <si>
-    <t>vert.x</t>
-  </si>
-  <si>
-    <t>ehcache3</t>
-  </si>
-  <si>
-    <t>elasticsearch-hadoop</t>
-  </si>
-  <si>
-    <t>embulk</t>
-  </si>
-  <si>
-    <t>WorldEdit</t>
-  </si>
-  <si>
-    <t>eclim</t>
-  </si>
-  <si>
-    <t>Etar-Calendar</t>
-  </si>
-  <si>
-    <t>docker-maven-plugin</t>
-  </si>
-  <si>
-    <t>buck</t>
-  </si>
-  <si>
-    <t>jackson-databind</t>
-  </si>
-  <si>
-    <t>jackson-core</t>
-  </si>
-  <si>
-    <t>Omni-Notes</t>
-  </si>
-  <si>
-    <t>find-sec-bugs</t>
-  </si>
-  <si>
-    <t>search-guard</t>
-  </si>
-  <si>
-    <t>flowable-engine</t>
-  </si>
-  <si>
-    <t>flutter-intellij</t>
-  </si>
-  <si>
-    <t>flyway</t>
-  </si>
-  <si>
-    <t>open-event-organizer-android</t>
-  </si>
-  <si>
-    <t>susi_server</t>
-  </si>
-  <si>
-    <t>phimpme-android</t>
-  </si>
-  <si>
-    <t>pslab-android</t>
-  </si>
-  <si>
-    <t>Gadgetbridge</t>
-  </si>
-  <si>
-    <t>FBReaderJ</t>
-  </si>
-  <si>
-    <t>geoserver</t>
-  </si>
-  <si>
-    <t>gephi</t>
-  </si>
-  <si>
-    <t>Geyser</t>
-  </si>
-  <si>
-    <t>git-commit-id-maven-plugin</t>
-  </si>
-  <si>
-    <t>gitblit</t>
-  </si>
-  <si>
-    <t>Glowstone</t>
-  </si>
-  <si>
-    <t>guacamole-client</t>
-  </si>
-  <si>
-    <t>gocd</t>
-  </si>
-  <si>
-    <t>ExoPlayer</t>
-  </si>
-  <si>
-    <t>j2objc</t>
-  </si>
-  <si>
-    <t>error-prone</t>
-  </si>
-  <si>
-    <t>nomulus</t>
-  </si>
-  <si>
-    <t>copybara</t>
-  </si>
-  <si>
-    <t>jib</t>
-  </si>
-  <si>
-    <t>graphhopper</t>
-  </si>
-  <si>
-    <t>jsprit</t>
-  </si>
-  <si>
-    <t>gravitee-gateway</t>
-  </si>
-  <si>
-    <t>graylog2-server</t>
-  </si>
-  <si>
-    <t>markor</t>
-  </si>
-  <si>
-    <t>h2o-3</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>hawtio</t>
-  </si>
-  <si>
-    <t>pitest</t>
-  </si>
-  <si>
-    <t>materialistic</t>
-  </si>
-  <si>
-    <t>Digital</t>
-  </si>
-  <si>
-    <t>HMCL</t>
-  </si>
-  <si>
-    <t>i2p.i2p</t>
-  </si>
-  <si>
-    <t>Apktool</t>
-  </si>
-  <si>
-    <t>Openfire</t>
-  </si>
-  <si>
-    <t>Conversations</t>
-  </si>
-  <si>
-    <t>heritrix3</t>
-  </si>
-  <si>
-    <t>iri</t>
-  </si>
-  <si>
-    <t>uhabits</t>
-  </si>
-  <si>
-    <t>cyberduck</t>
-  </si>
-  <si>
-    <t>jabref</t>
-  </si>
-  <si>
-    <t>mockserver</t>
-  </si>
-  <si>
-    <t>mapdb</t>
-  </si>
-  <si>
-    <t>javamelody</t>
-  </si>
-  <si>
-    <t>sms-backup-plus</t>
-  </si>
-  <si>
-    <t>jenkins</t>
-  </si>
-  <si>
-    <t>blueocean-plugin</t>
-  </si>
-  <si>
-    <t>kubernetes-plugin</t>
-  </si>
-  <si>
-    <t>gitlab-plugin</t>
-  </si>
-  <si>
-    <t>DependencyCheck</t>
-  </si>
-  <si>
-    <t>smali</t>
-  </si>
-  <si>
-    <t>intellij-community</t>
-  </si>
-  <si>
-    <t>ideavim</t>
-  </si>
-  <si>
-    <t>MPS</t>
-  </si>
-  <si>
-    <t>jpexs-decompiler</t>
-  </si>
-  <si>
-    <t>jitsi-videobridge</t>
-  </si>
-  <si>
-    <t>jitsi</t>
-  </si>
-  <si>
-    <t>zotfile</t>
-  </si>
-  <si>
-    <t>jmonkeyengine</t>
-  </si>
-  <si>
-    <t>jmxtrans</t>
-  </si>
-  <si>
-    <t>jsonschema2pojo</t>
-  </si>
-  <si>
-    <t>JSqlParser</t>
-  </si>
-  <si>
-    <t>tablesaw</t>
-  </si>
-  <si>
-    <t>FastHub</t>
-  </si>
-  <si>
-    <t>k-9</t>
-  </si>
-  <si>
-    <t>kaa</t>
-  </si>
-  <si>
-    <t>Phonograph</t>
-  </si>
-  <si>
-    <t>phpinspectionsea</t>
-  </si>
-  <si>
-    <t>grobid</t>
-  </si>
-  <si>
-    <t>keycloak</t>
-  </si>
-  <si>
-    <t>android-oss</t>
-  </si>
-  <si>
-    <t>drools</t>
-  </si>
-  <si>
-    <t>optaplanner</t>
-  </si>
-  <si>
-    <t>jbpm</t>
-  </si>
-  <si>
-    <t>killbill</t>
-  </si>
-  <si>
-    <t>intellij-elixir</t>
-  </si>
-  <si>
-    <t>languagetool</t>
-  </si>
-  <si>
-    <t>Lawnchair</t>
-  </si>
-  <si>
-    <t>lbry-android</t>
-  </si>
-  <si>
-    <t>liferay-portal</t>
-  </si>
-  <si>
-    <t>ambry</t>
-  </si>
-  <si>
-    <t>liquibase</t>
-  </si>
-  <si>
-    <t>LuckPerms</t>
-  </si>
-  <si>
-    <t>NetGuard</t>
-  </si>
-  <si>
-    <t>mage</t>
-  </si>
-  <si>
-    <t>mapstruct</t>
-  </si>
-  <si>
-    <t>marytts</t>
-  </si>
-  <si>
-    <t>material-components-android</t>
-  </si>
-  <si>
-    <t>gpslogger</t>
-  </si>
-  <si>
-    <t>micrometer</t>
-  </si>
-  <si>
-    <t>malmo</t>
-  </si>
-  <si>
-    <t>MinecraftForge</t>
-  </si>
-  <si>
-    <t>OpenID-Connect-Java-Spring-Server</t>
-  </si>
-  <si>
-    <t>qksms</t>
-  </si>
-  <si>
-    <t>Terasology</t>
-  </si>
-  <si>
-    <t>focus-android</t>
-  </si>
-  <si>
-    <t>msgpack-java</t>
-  </si>
-  <si>
-    <t>ngrinder</t>
-  </si>
-  <si>
-    <t>KISS</t>
-  </si>
-  <si>
-    <t>eureka</t>
-  </si>
-  <si>
-    <t>conductor</t>
-  </si>
-  <si>
-    <t>genie</t>
-  </si>
-  <si>
-    <t>cqengine</t>
-  </si>
-  <si>
-    <t>open-keychain</t>
-  </si>
-  <si>
-    <t>openapi-generator</t>
-  </si>
-  <si>
-    <t>Chronicle-Queue</t>
-  </si>
-  <si>
-    <t>Chronicle-Map</t>
-  </si>
-  <si>
-    <t>OpenRefine</t>
-  </si>
-  <si>
-    <t>BIMserver</t>
-  </si>
-  <si>
-    <t>OpenTripPlanner</t>
-  </si>
-  <si>
-    <t>openvidu</t>
-  </si>
-  <si>
-    <t>zipkin</t>
-  </si>
-  <si>
-    <t>opengrok</t>
-  </si>
-  <si>
-    <t>visualvm</t>
-  </si>
-  <si>
-    <t>orgzly-android</t>
-  </si>
-  <si>
-    <t>oryx</t>
-  </si>
-  <si>
-    <t>oshi</t>
-  </si>
-  <si>
-    <t>OsmAnd</t>
-  </si>
-  <si>
-    <t>Osmand</t>
-  </si>
-  <si>
-    <t>osmdroid</t>
-  </si>
-  <si>
-    <t>pac4j</t>
-  </si>
-  <si>
-    <t>pentaho-kettle</t>
-  </si>
-  <si>
-    <t>keepass2android</t>
-  </si>
-  <si>
-    <t>secor</t>
-  </si>
-  <si>
-    <t>pmd</t>
-  </si>
-  <si>
-    <t>PocketHub</t>
-  </si>
-  <si>
-    <t>pravega</t>
-  </si>
-  <si>
-    <t>presto</t>
-  </si>
-  <si>
-    <t>processing</t>
-  </si>
-  <si>
-    <t>psi-probe</t>
-  </si>
-  <si>
-    <t>storio</t>
-  </si>
-  <si>
-    <t>serve</t>
-  </si>
-  <si>
-    <t>slf4j</t>
-  </si>
-  <si>
-    <t>RedReader</t>
-  </si>
-  <si>
-    <t>quran_android</t>
-  </si>
-  <si>
-    <t>Rajawali</t>
-  </si>
-  <si>
-    <t>reactor-netty</t>
-  </si>
-  <si>
-    <t>aeron</t>
-  </si>
-  <si>
-    <t>simple-binary-encoding</t>
-  </si>
-  <si>
-    <t>redisson</t>
-  </si>
-  <si>
-    <t>xabber-android</t>
-  </si>
-  <si>
-    <t>rest-assured</t>
-  </si>
-  <si>
-    <t>ripme</t>
-  </si>
-  <si>
-    <t>rstudio</t>
-  </si>
-  <si>
-    <t>runelite</t>
-  </si>
-  <si>
-    <t>ics-openvpn</t>
-  </si>
-  <si>
-    <t>scouter</t>
-  </si>
-  <si>
-    <t>Signal-Android</t>
-  </si>
-  <si>
-    <t>android-maven-plugin</t>
-  </si>
-  <si>
-    <t>jadx</t>
-  </si>
-  <si>
-    <t>gh4a</t>
-  </si>
-  <si>
-    <t>autopsy</t>
-  </si>
-  <si>
-    <t>sonarqube</t>
-  </si>
-  <si>
-    <t>nokogiri</t>
-  </si>
-  <si>
-    <t>speedment</t>
-  </si>
-  <si>
-    <t>BungeeCord</t>
-  </si>
-  <si>
-    <t>SpongeAPI</t>
-  </si>
-  <si>
-    <t>SpongeForge</t>
-  </si>
-  <si>
-    <t>spotbugs</t>
-  </si>
-  <si>
-    <t>helios</t>
-  </si>
-  <si>
-    <t>spring-cloud-netflix</t>
-  </si>
-  <si>
-    <t>spring-cloud-gateway</t>
-  </si>
-  <si>
-    <t>spring-cloud-config</t>
-  </si>
-  <si>
-    <t>spring-cloud-sleuth</t>
-  </si>
-  <si>
-    <t>okhttp</t>
-  </si>
-  <si>
-    <t>retrofit</t>
-  </si>
-  <si>
-    <t>wire</t>
-  </si>
-  <si>
-    <t>keywhiz</t>
-  </si>
-  <si>
-    <t>stagemonitor</t>
-  </si>
-  <si>
-    <t>strimzi-kafka-operator</t>
-  </si>
-  <si>
-    <t>swagger-core</t>
-  </si>
-  <si>
-    <t>syncany</t>
-  </si>
-  <si>
-    <t>syncthing-android</t>
-  </si>
-  <si>
-    <t>synthea</t>
-  </si>
-  <si>
-    <t>AmazeFileManager</t>
-  </si>
-  <si>
-    <t>teammates</t>
-  </si>
-  <si>
-    <t>onedev</t>
-  </si>
-  <si>
-    <t>thingsboard</t>
-  </si>
-  <si>
-    <t>thymeleaf</t>
-  </si>
-  <si>
-    <t>Shuttle</t>
-  </si>
-  <si>
-    <t>wiremock</t>
-  </si>
-  <si>
-    <t>amidst</t>
-  </si>
-  <si>
-    <t>traccar</t>
-  </si>
-  <si>
-    <t>java-tron</t>
-  </si>
-  <si>
-    <t>beakerx</t>
-  </si>
-  <si>
-    <t>afwall</t>
-  </si>
-  <si>
-    <t>undertow</t>
-  </si>
-  <si>
-    <t>LeafPic</t>
-  </si>
-  <si>
-    <t>UniversalMediaServer</t>
-  </si>
-  <si>
-    <t>validator</t>
-  </si>
-  <si>
-    <t>modeldb</t>
-  </si>
-  <si>
-    <t>vespa</t>
-  </si>
-  <si>
-    <t>Saturn</t>
-  </si>
-  <si>
-    <t>flexmark-java</t>
-  </si>
-  <si>
-    <t>epubcheck</t>
-  </si>
-  <si>
-    <t>dynmap</t>
-  </si>
-  <si>
-    <t>StreetComplete</t>
-  </si>
-  <si>
-    <t>apps-android-wikipedia</t>
-  </si>
-  <si>
     <t>Universal-G-Code-Sender</t>
   </si>
   <si>
@@ -1000,25 +1000,25 @@
     <t>automation</t>
   </si>
   <si>
+    <t>infrastructure management</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>hpc</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>machine learning</t>
+  </si>
+  <si>
+    <t>software development</t>
+  </si>
+  <si>
     <t>monitoring</t>
-  </si>
-  <si>
-    <t>hpc</t>
-  </si>
-  <si>
-    <t>software development</t>
-  </si>
-  <si>
-    <t>infrastructure management</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>machine learning</t>
   </si>
   <si>
     <t>collaboration</t>
@@ -1493,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.76150356448477</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.03946329913180742</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.03946329913180742</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1519,13 +1519,13 @@
         <v>329</v>
       </c>
       <c r="C4">
-        <v>0.08831321754489255</v>
+        <v>2.801302931596091</v>
       </c>
       <c r="D4">
-        <v>0.1766264350897851</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05887547836326171</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.06514657980456026</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1545,7 +1545,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.310077519379845</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1577,13 +1577,13 @@
         <v>328</v>
       </c>
       <c r="C6">
-        <v>0.4853160776505724</v>
+        <v>0.5157297576070139</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5102040816326531</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1603,28 +1603,28 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C7">
-        <v>1.207356450933595</v>
+        <v>0.02881844380403458</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02105854274884178</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>3.846693808788432</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.530254106415836</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1614488277411203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.76150356448477</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2430133657351154</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>332</v>
       </c>
       <c r="C9">
-        <v>2.801302931596091</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.06514657980456026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1690,16 +1690,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.033003300330033</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4651162790697674</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.310077519379845</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1719,10 +1719,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C11">
-        <v>0.5157297576070139</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>329</v>
       </c>
       <c r="C12">
-        <v>0.02881844380403458</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.2430133657351154</v>
+        <v>0.2411091018685955</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.129719264278799</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1290738948047757</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C15">
-        <v>0.033003300330033</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.02210921954455008</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1876,13 +1876,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.09090909090909091</v>
+        <v>0.03946329913180742</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.03946329913180742</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1893,10 +1893,10 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.1792238229820087</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1905,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.02757289584338595</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.7996139794581926</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2411091018685955</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1951,16 +1951,16 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.1586042823156225</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.129719264278799</v>
+        <v>2.299762093576527</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1290738948047757</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.6968641114982579</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1992,13 +1992,13 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.02210921954455008</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.5574912891986062</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2009,25 +2009,25 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C21">
-        <v>0.1792238229820087</v>
+        <v>0.08831321754489255</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.1766264350897851</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.05887547836326171</v>
       </c>
       <c r="F21">
-        <v>0.02757289584338595</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.7996139794581926</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2038,16 +2038,16 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3.395843892549417</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.2534211860111505</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.05068423720223011</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2067,16 +2067,16 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C23">
-        <v>0.1586042823156225</v>
+        <v>0.5204460966542751</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.299762093576527</v>
+        <v>0.03717472118959108</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2096,16 +2096,16 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C24">
-        <v>0.6968641114982579</v>
+        <v>0.01344989912575656</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.1882985877605918</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.5574912891986062</v>
+        <v>0.3227975790181574</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2125,25 +2125,25 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C25">
-        <v>3.395843892549417</v>
+        <v>0.1169317118802619</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2534211860111505</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.1169317118802619</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.05068423720223011</v>
+        <v>0.02338634237605238</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2154,16 +2154,16 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C26">
-        <v>0.5204460966542751</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.03717472118959108</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>0.033003300330033</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2183,16 +2183,16 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C27">
-        <v>0.01344989912575656</v>
+        <v>0.1968503937007874</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.1882985877605918</v>
+        <v>0.03280839895013123</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.3227975790181574</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2212,10 +2212,10 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C28">
-        <v>0.1169317118802619</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2224,13 +2224,13 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.1169317118802619</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.02338634237605238</v>
+        <v>0.04388370817334065</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C29">
-        <v>0.09900990099009901</v>
+        <v>0.02911208151382824</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.033003300330033</v>
+        <v>0.08733624454148471</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2270,16 +2270,16 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C30">
-        <v>0.1968503937007874</v>
+        <v>0.2785515320334262</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.03280839895013123</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2299,16 +2299,16 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.2692514808831448</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.05385029617662897</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0.04388370817334065</v>
+        <v>0.1077005923532579</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2328,28 +2328,28 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C32">
-        <v>0.02911208151382824</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>3.164556962025316</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1.371308016877637</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.08733624454148471</v>
+        <v>0.3164556962025317</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2.320675105485232</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2357,10 +2357,10 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C33">
-        <v>0.2785515320334262</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>0.5973120955699354</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2386,16 +2386,16 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C34">
-        <v>0.2692514808831448</v>
+        <v>0.09861932938856016</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.05385029617662897</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.1077005923532579</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2415,28 +2415,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C35">
-        <v>1.265822784810127</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>3.164556962025316</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.371308016877637</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.3164556962025317</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>2.320675105485232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2444,16 +2444,16 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.2192982456140351</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2462,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.5973120955699354</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2473,19 +2473,19 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C37">
-        <v>0.09861932938856016</v>
+        <v>0.149337315661751</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>4.536120963225685</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1.064028374089976</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2502,10 +2502,10 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C38">
-        <v>0.04761904761904762</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>0.4597701149425287</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2531,16 +2531,16 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C39">
-        <v>0.008771929824561403</v>
+        <v>0.0522944175709243</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.2192982456140351</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2549,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.01754385964912281</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0.02631578947368421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2560,19 +2560,19 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C40">
-        <v>0.149337315661751</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>4.536120963225685</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.064028374089976</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2589,10 +2589,10 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C41">
-        <v>0.1149425287356322</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0.4597701149425287</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2618,28 +2618,28 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C42">
-        <v>0.0522944175709243</v>
+        <v>0.4118533400301356</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.05022601707684581</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>2.702159718734304</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>0.01004520341536916</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>0.4520341536916123</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2647,16 +2647,16 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>0.06548788474132286</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.03274394237066143</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2676,28 +2676,28 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C44">
-        <v>0.0547945205479452</v>
+        <v>0.5425567989148864</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.04723150704839413</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.3027660708230393</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.0273972602739726</v>
+        <v>0.2761226565906118</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>0.1126289783461706</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2705,28 +2705,28 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C45">
-        <v>0.4118533400301356</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0.05022601707684581</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>2.702159718734304</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0.01004520341536916</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0.4520341536916123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2734,28 +2734,28 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C46">
-        <v>0.06548788474132286</v>
+        <v>3.08839190628328</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>0.9939652112176074</v>
       </c>
       <c r="E46">
-        <v>0.03274394237066143</v>
+        <v>0.05916459590580997</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.8874689385871495</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>0.2484913028044018</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>0.07099751508697195</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2763,28 +2763,28 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C47">
-        <v>0.5425567989148864</v>
+        <v>0.29296875</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0.04723150704839413</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.3027660708230393</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.2761226565906118</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>0.1126289783461706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2792,10 +2792,10 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>0.3643935450286309</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2821,28 +2821,28 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C49">
-        <v>3.08839190628328</v>
+        <v>3.344481605351171</v>
       </c>
       <c r="D49">
-        <v>0.9939652112176074</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.05916459590580997</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.8874689385871495</v>
+        <v>3.344481605351171</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0.2484913028044018</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="I49">
-        <v>0.07099751508697195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2850,10 +2850,10 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C50">
-        <v>0.29296875</v>
+        <v>0.1700680272108843</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C51">
-        <v>0.3643935450286309</v>
+        <v>0.5036373810856184</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>0.05595970900951316</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2908,25 +2908,25 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C52">
-        <v>3.344481605351171</v>
+        <v>30.4421768707483</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="F52">
-        <v>3.344481605351171</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>8.695652173913043</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2937,10 +2937,10 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C53">
-        <v>0.1700680272108843</v>
+        <v>0.04373018476003061</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>0.05466273095003826</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2969,7 +2969,7 @@
         <v>331</v>
       </c>
       <c r="C54">
-        <v>0.5036373810856184</v>
+        <v>0.02521432173474534</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0.05595970900951316</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C55">
-        <v>30.4421768707483</v>
+        <v>0.7685738684884714</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>2.040816326530612</v>
+        <v>0.1992598918303445</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3024,10 +3024,10 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C56">
-        <v>0.04373018476003061</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0.05466273095003826</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -3053,10 +3053,10 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C57">
-        <v>0.02521432173474534</v>
+        <v>0.3861003861003861</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>0.3861003861003861</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C58">
-        <v>0.7685738684884714</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0.1992598918303445</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C60">
-        <v>0.3861003861003861</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -3152,13 +3152,13 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.3861003861003861</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>0.1626016260162602</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0.1626016260162602</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -3256,7 +3256,7 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>0.2865329512893983</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3285,10 +3285,10 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.03790032215273829</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.2865329512893983</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3372,10 +3372,10 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C68">
-        <v>0.03790032215273829</v>
+        <v>0.3094777562862669</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>0.03868471953578336</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.02273243919072516</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>0.02273243919072516</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3459,10 +3459,10 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C71">
-        <v>0.3094777562862669</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0.03868471953578336</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -3488,19 +3488,19 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>0.312256049960968</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.02273243919072516</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.02273243919072516</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -3529,13 +3529,13 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>0.79155672823219</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>0.5277044854881267</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -3546,16 +3546,16 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>0.1530612244897959</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>1.666666666666667</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -3575,10 +3575,10 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C75">
-        <v>0.312256049960968</v>
+        <v>0.782122905027933</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3616,13 +3616,13 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.79155672823219</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0.5277044854881267</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -3636,13 +3636,13 @@
         <v>333</v>
       </c>
       <c r="C77">
-        <v>0.1530612244897959</v>
+        <v>0.1618122977346279</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>1.428571428571429</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -3662,10 +3662,10 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C78">
-        <v>0.782122905027933</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>0.3194888178913738</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>0.2012072434607646</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C80">
-        <v>0.1618122977346279</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>0.3194888178913738</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -3778,7 +3778,7 @@
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0.2012072434607646</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3807,25 +3807,25 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>2.02020202020202</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>3.097643097643098</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1.952861952861953</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1.548821548821549</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3839,22 +3839,22 @@
         <v>333</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>2.279202279202279</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.2849002849002849</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.1899335232668566</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>0.2849002849002849</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>333</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>0.04270462633451957</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.01423487544483986</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3894,25 +3894,25 @@
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C86">
-        <v>2.02020202020202</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>3.097643097643098</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.952861952861953</v>
+        <v>0.2430133657351154</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>1.548821548821549</v>
+        <v>0.425273390036452</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -3923,25 +3923,25 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C87">
-        <v>2.279202279202279</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0.2849002849002849</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.1899335232668566</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0.2849002849002849</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C88">
-        <v>0.04270462633451957</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.01423487544483986</v>
+        <v>0</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3981,7 +3981,7 @@
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3993,13 +3993,13 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.2430133657351154</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0.425273390036452</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -4010,16 +4010,16 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>2.680067001675042</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.2233389168062535</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>0.1675041876046901</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>0.1564945226917058</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>21.1528429838289</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -4100,13 +4100,13 @@
         <v>338</v>
       </c>
       <c r="C93">
-        <v>2.680067001675042</v>
+        <v>0.03916193459956922</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0.2233389168062535</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>0.1675041876046901</v>
+        <v>0.07832386919913843</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -4126,10 +4126,10 @@
         <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C94">
-        <v>0.1564945226917058</v>
+        <v>0.7770713492784337</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -4138,13 +4138,13 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>21.1528429838289</v>
+        <v>0</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>0.544959128065395</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C95">
-        <v>0.03916193459956922</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0.07832386919913843</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -4184,10 +4184,10 @@
         <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C96">
-        <v>0.7770713492784337</v>
+        <v>1.871809415768576</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -4196,13 +4196,13 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.3403289846851957</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>0.544959128065395</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -4242,10 +4242,10 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C98">
-        <v>1.871809415768576</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0.3403289846851957</v>
+        <v>0</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -4271,10 +4271,10 @@
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.2759889604415823</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -4300,10 +4300,10 @@
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4329,10 +4329,10 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C101">
-        <v>0.2759889604415823</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -4358,10 +4358,10 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -4387,10 +4387,10 @@
         <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>0.006390184676337147</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -4445,10 +4445,10 @@
         <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C105">
-        <v>0.006390184676337147</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -4474,7 +4474,7 @@
         <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -4503,10 +4503,10 @@
         <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>0.3748125937031484</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -4515,13 +4515,13 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>0.7496251874062968</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>0.8995502248875562</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -4564,22 +4564,22 @@
         <v>333</v>
       </c>
       <c r="C109">
-        <v>0.3748125937031484</v>
+        <v>1.966522899979462</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1.478743068391867</v>
       </c>
       <c r="F109">
-        <v>0.7496251874062968</v>
+        <v>0.8317929759704251</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>0.8995502248875562</v>
+        <v>0.05647976997330047</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -4619,25 +4619,25 @@
         <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C111">
-        <v>1.966522899979462</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>1.478743068391867</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.8317929759704251</v>
+        <v>0</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>0.05647976997330047</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -4648,7 +4648,7 @@
         <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -4677,10 +4677,10 @@
         <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1.340996168582375</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -4735,10 +4735,10 @@
         <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C115">
-        <v>1.340996168582375</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -4764,7 +4764,7 @@
         <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -4793,10 +4793,10 @@
         <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>0.08223684210526315</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -4805,13 +4805,13 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>0.08223684210526315</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>0.04111842105263157</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -4822,25 +4822,25 @@
         <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>1.167891866255632</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.6046952810054541</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>0.08299739151055252</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>0.1244960872658288</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -4851,10 +4851,10 @@
         <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C119">
-        <v>0.08223684210526315</v>
+        <v>0.06167129201356768</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -4863,13 +4863,13 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>0.08223684210526315</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>0.04111842105263157</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -4880,25 +4880,25 @@
         <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C120">
-        <v>1.167891866255632</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>0.6046952810054541</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.08299739151055252</v>
+        <v>0</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120">
-        <v>0.1244960872658288</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -4909,16 +4909,16 @@
         <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C121">
-        <v>0.06167129201356768</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -4938,10 +4938,10 @@
         <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>1.255605381165919</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>0.08968609865470852</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -4967,7 +4967,7 @@
         <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -4976,10 +4976,10 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>0.04950495049504951</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>0.2830856334041048</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4996,10 +4996,10 @@
         <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C124">
-        <v>1.255605381165919</v>
+        <v>5.89582140812822</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -5014,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>0.08968609865470852</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -5025,25 +5025,25 @@
         <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>0.4524886877828055</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>0.1190759704691593</v>
       </c>
       <c r="F125">
-        <v>0.2830856334041048</v>
+        <v>0</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>0.6311026434865444</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -5054,10 +5054,10 @@
         <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C126">
-        <v>5.89582140812822</v>
+        <v>0.1987632508833922</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -5083,16 +5083,16 @@
         <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C127">
-        <v>0.4524886877828055</v>
+        <v>0.01675322499581169</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>0.1190759704691593</v>
+        <v>0</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>0.6311026434865444</v>
+        <v>0.01675322499581169</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -5112,10 +5112,10 @@
         <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C128">
-        <v>0.1987632508833922</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>0.03993610223642172</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -5141,10 +5141,10 @@
         <v>136</v>
       </c>
       <c r="B129" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C129">
-        <v>0.01675322499581169</v>
+        <v>0.1288992008249549</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -5153,13 +5153,13 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>3.4287187419438</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
       <c r="H129">
-        <v>0.01675322499581169</v>
+        <v>0.4898169631348285</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -5170,7 +5170,7 @@
         <v>137</v>
       </c>
       <c r="B130" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>0.03993610223642172</v>
+        <v>0</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -5199,10 +5199,10 @@
         <v>138</v>
       </c>
       <c r="B131" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C131">
-        <v>0.1288992008249549</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -5211,13 +5211,13 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>3.4287187419438</v>
+        <v>0</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
       <c r="H131">
-        <v>0.4898169631348285</v>
+        <v>0.08424599831508003</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -5228,10 +5228,10 @@
         <v>139</v>
       </c>
       <c r="B132" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>0.07621951219512195</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>0.07621951219512195</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -5257,7 +5257,7 @@
         <v>140</v>
       </c>
       <c r="B133" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>0.08424599831508003</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         <v>141</v>
       </c>
       <c r="B134" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C134">
-        <v>0.07621951219512195</v>
+        <v>0</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>0.07621951219512195</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -5315,25 +5315,25 @@
         <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>0.06580029610133245</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>0.1151505181773318</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>0.01645007402533311</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>0.06580029610133245</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -5344,7 +5344,7 @@
         <v>143</v>
       </c>
       <c r="B136" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -5373,25 +5373,25 @@
         <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C137">
-        <v>0.06580029610133245</v>
+        <v>0.1077876583131231</v>
       </c>
       <c r="D137">
-        <v>0.1151505181773318</v>
+        <v>0</v>
       </c>
       <c r="E137">
         <v>0</v>
       </c>
       <c r="F137">
-        <v>0.01645007402533311</v>
+        <v>0</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
       <c r="H137">
-        <v>0.06580029610133245</v>
+        <v>0.04042037186742118</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>0.06510416666666666</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -5431,10 +5431,10 @@
         <v>146</v>
       </c>
       <c r="B139" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C139">
-        <v>0.1077876583131231</v>
+        <v>0</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>0.04042037186742118</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -5460,10 +5460,10 @@
         <v>147</v>
       </c>
       <c r="B140" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>0.08673026886383348</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>0.06510416666666666</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -5489,10 +5489,10 @@
         <v>148</v>
       </c>
       <c r="B141" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>0.209643605870021</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>0.209643605870021</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -5518,10 +5518,10 @@
         <v>149</v>
       </c>
       <c r="B142" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C142">
-        <v>0.08673026886383348</v>
+        <v>0</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -5547,10 +5547,10 @@
         <v>150</v>
       </c>
       <c r="B143" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C143">
-        <v>0.209643605870021</v>
+        <v>0</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>0.209643605870021</v>
+        <v>0</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -5576,10 +5576,10 @@
         <v>151</v>
       </c>
       <c r="B144" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>1.082699838746833</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -5605,7 +5605,7 @@
         <v>152</v>
       </c>
       <c r="B145" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -5634,10 +5634,10 @@
         <v>153</v>
       </c>
       <c r="B146" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C146">
-        <v>1.082699838746833</v>
+        <v>1.743060038734668</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -5663,7 +5663,7 @@
         <v>154</v>
       </c>
       <c r="B147" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -5692,16 +5692,16 @@
         <v>155</v>
       </c>
       <c r="B148" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C148">
-        <v>1.743060038734668</v>
+        <v>0.4970178926441352</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.2982107355864811</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>156</v>
       </c>
       <c r="B149" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>0.2178649237472767</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -5750,16 +5750,16 @@
         <v>157</v>
       </c>
       <c r="B150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C150">
-        <v>0.4970178926441352</v>
+        <v>0.08984725965858043</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>0.2982107355864811</v>
+        <v>0</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -5779,10 +5779,10 @@
         <v>158</v>
       </c>
       <c r="B151" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C151">
-        <v>0.2178649237472767</v>
+        <v>0</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>0.01502403846153846</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -5808,10 +5808,10 @@
         <v>159</v>
       </c>
       <c r="B152" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C152">
-        <v>0.08984725965858043</v>
+        <v>0</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>160</v>
       </c>
       <c r="B153" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>0.01502403846153846</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -5866,7 +5866,7 @@
         <v>161</v>
       </c>
       <c r="B154" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -5895,28 +5895,28 @@
         <v>162</v>
       </c>
       <c r="B155" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>0.09803921568627451</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5924,7 +5924,7 @@
         <v>163</v>
       </c>
       <c r="B156" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -5953,28 +5953,28 @@
         <v>164</v>
       </c>
       <c r="B157" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C157">
-        <v>0.7843137254901961</v>
+        <v>0.1458476321207962</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0.5882352941176471</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.5882352941176471</v>
+        <v>0</v>
       </c>
       <c r="G157">
         <v>0</v>
       </c>
       <c r="H157">
-        <v>0.09803921568627451</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>0.09803921568627451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5982,10 +5982,10 @@
         <v>165</v>
       </c>
       <c r="B158" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>0.03404834865509022</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -6011,10 +6011,10 @@
         <v>166</v>
       </c>
       <c r="B159" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C159">
-        <v>0.1458476321207962</v>
+        <v>0</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -6040,10 +6040,10 @@
         <v>167</v>
       </c>
       <c r="B160" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C160">
-        <v>0.03404834865509022</v>
+        <v>0</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -6069,10 +6069,10 @@
         <v>168</v>
       </c>
       <c r="B161" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>0.502092050209205</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>0.08368200836820083</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -6098,7 +6098,7 @@
         <v>169</v>
       </c>
       <c r="B162" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -6127,28 +6127,28 @@
         <v>170</v>
       </c>
       <c r="B163" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C163">
-        <v>0.502092050209205</v>
+        <v>0.02235124158421239</v>
       </c>
       <c r="D163">
         <v>0</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.04742824433723117</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>0.01199334914274811</v>
       </c>
       <c r="G163">
         <v>0</v>
       </c>
       <c r="H163">
-        <v>0.08368200836820083</v>
+        <v>0.02344154605173495</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>0.001090304467522556</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6156,7 +6156,7 @@
         <v>171</v>
       </c>
       <c r="B164" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -6185,28 +6185,28 @@
         <v>172</v>
       </c>
       <c r="B165" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C165">
-        <v>0.02235124158421239</v>
+        <v>0.5281121719477884</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165">
-        <v>0.04742824433723117</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.01199334914274811</v>
+        <v>8.099257414325907</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
       <c r="H165">
-        <v>0.02344154605173495</v>
+        <v>0.002306166689728334</v>
       </c>
       <c r="I165">
-        <v>0.001090304467522556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6214,10 +6214,10 @@
         <v>173</v>
       </c>
       <c r="B166" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>0.5241090146750524</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>0.07861635220125787</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -6243,10 +6243,10 @@
         <v>174</v>
       </c>
       <c r="B167" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C167">
-        <v>0.5281121719477884</v>
+        <v>0</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -6255,13 +6255,13 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>8.099257414325907</v>
+        <v>0</v>
       </c>
       <c r="G167">
         <v>0</v>
       </c>
       <c r="H167">
-        <v>0.002306166689728334</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -6272,10 +6272,10 @@
         <v>175</v>
       </c>
       <c r="B168" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C168">
-        <v>0.5241090146750524</v>
+        <v>0.1097092704333516</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -6284,13 +6284,13 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>0.02742731760833791</v>
       </c>
       <c r="G168">
         <v>0</v>
       </c>
       <c r="H168">
-        <v>0.07861635220125787</v>
+        <v>0.08228195282501372</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>176</v>
       </c>
       <c r="B169" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -6330,10 +6330,10 @@
         <v>177</v>
       </c>
       <c r="B170" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C170">
-        <v>0.1097092704333516</v>
+        <v>0</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -6342,13 +6342,13 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>0.02742731760833791</v>
+        <v>0.07607455306200077</v>
       </c>
       <c r="G170">
         <v>0</v>
       </c>
       <c r="H170">
-        <v>0.08228195282501372</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>178</v>
       </c>
       <c r="B171" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -6388,7 +6388,7 @@
         <v>179</v>
       </c>
       <c r="B172" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -6400,13 +6400,13 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>0.07607455306200077</v>
+        <v>0</v>
       </c>
       <c r="G172">
         <v>0</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>0.3745318352059925</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -6417,7 +6417,7 @@
         <v>180</v>
       </c>
       <c r="B173" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>181</v>
       </c>
       <c r="B174" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>0.3745318352059925</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -6475,7 +6475,7 @@
         <v>182</v>
       </c>
       <c r="B175" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -6487,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1.634241245136187</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -6504,7 +6504,7 @@
         <v>183</v>
       </c>
       <c r="B176" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -6533,7 +6533,7 @@
         <v>184</v>
       </c>
       <c r="B177" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.634241245136187</v>
+        <v>0</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>185</v>
       </c>
       <c r="B178" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -6591,7 +6591,7 @@
         <v>186</v>
       </c>
       <c r="B179" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -6623,7 +6623,7 @@
         <v>332</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>0.06266449429753103</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>0.02506579771901241</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -6649,28 +6649,28 @@
         <v>188</v>
       </c>
       <c r="B181" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>1.957831325301205</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>0.009412650602409639</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1.082454819277108</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>0.2447289156626506</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>0.009412650602409639</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6678,10 +6678,10 @@
         <v>189</v>
       </c>
       <c r="B182" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C182">
-        <v>0.06266449429753103</v>
+        <v>0</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>0.02506579771901241</v>
+        <v>0</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -6707,28 +6707,28 @@
         <v>190</v>
       </c>
       <c r="B183" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C183">
-        <v>1.957831325301205</v>
+        <v>0.01906577693040991</v>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183">
-        <v>0.009412650602409639</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.082454819277108</v>
+        <v>0.1811248808388942</v>
       </c>
       <c r="G183">
         <v>0</v>
       </c>
       <c r="H183">
-        <v>0.2447289156626506</v>
+        <v>0.04766444232602478</v>
       </c>
       <c r="I183">
-        <v>0.009412650602409639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6736,10 +6736,10 @@
         <v>191</v>
       </c>
       <c r="B184" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>0.05192107995846314</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -6748,16 +6748,16 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>2.249913464866736</v>
       </c>
       <c r="G184">
         <v>0</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>0.4672897196261682</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>0.01730702665282105</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6765,10 +6765,10 @@
         <v>192</v>
       </c>
       <c r="B185" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="C185">
-        <v>0.01906577693040991</v>
+        <v>0.1865671641791045</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -6777,13 +6777,13 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>0.1811248808388942</v>
+        <v>6.322553897180764</v>
       </c>
       <c r="G185">
         <v>0</v>
       </c>
       <c r="H185">
-        <v>0.04766444232602478</v>
+        <v>0.8706467661691543</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -6794,10 +6794,10 @@
         <v>193</v>
       </c>
       <c r="B186" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C186">
-        <v>0.05192107995846314</v>
+        <v>0.4151530877010898</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -6806,16 +6806,16 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>2.249913464866736</v>
+        <v>0.05189413596263622</v>
       </c>
       <c r="G186">
         <v>0</v>
       </c>
       <c r="H186">
-        <v>0.4672897196261682</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>0.01730702665282105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6823,10 +6823,10 @@
         <v>194</v>
       </c>
       <c r="B187" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C187">
-        <v>0.1865671641791045</v>
+        <v>0.03476447071093343</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -6835,13 +6835,13 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>6.322553897180764</v>
+        <v>0</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
       <c r="H187">
-        <v>0.8706467661691543</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -6852,10 +6852,10 @@
         <v>195</v>
       </c>
       <c r="B188" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C188">
-        <v>0.4151530877010898</v>
+        <v>0.2407463135720734</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>0.05189413596263622</v>
+        <v>0</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -6881,10 +6881,10 @@
         <v>196</v>
       </c>
       <c r="B189" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C189">
-        <v>0.03476447071093343</v>
+        <v>0</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -6910,10 +6910,10 @@
         <v>197</v>
       </c>
       <c r="B190" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C190">
-        <v>0.2407463135720734</v>
+        <v>0</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -6939,28 +6939,28 @@
         <v>198</v>
       </c>
       <c r="B191" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>0.8012637509040388</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>0.06090365802596018</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>0.1398880895283773</v>
       </c>
       <c r="G191">
         <v>0</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>0.1770012561379468</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>0.0009516196566556279</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6968,7 +6968,7 @@
         <v>199</v>
       </c>
       <c r="B192" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -6997,28 +6997,28 @@
         <v>200</v>
       </c>
       <c r="B193" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C193">
-        <v>0.8012637509040388</v>
+        <v>3.018034596981965</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>0.06090365802596018</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>0.1398880895283773</v>
+        <v>0</v>
       </c>
       <c r="G193">
         <v>0</v>
       </c>
       <c r="H193">
-        <v>0.1770012561379468</v>
+        <v>0.1840264998159735</v>
       </c>
       <c r="I193">
-        <v>0.0009516196566556279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -7026,7 +7026,7 @@
         <v>201</v>
       </c>
       <c r="B194" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -7055,10 +7055,10 @@
         <v>202</v>
       </c>
       <c r="B195" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C195">
-        <v>3.018034596981965</v>
+        <v>0</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>0.1840264998159735</v>
+        <v>0</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -7096,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>0.01362722719994549</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -7113,10 +7113,10 @@
         <v>204</v>
       </c>
       <c r="B197" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>0.03129890453834116</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>0.1251956181533646</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -7142,10 +7142,10 @@
         <v>205</v>
       </c>
       <c r="B198" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>0.1546790409899459</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -7154,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>0.01362722719994549</v>
+        <v>0</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -7171,10 +7171,10 @@
         <v>206</v>
       </c>
       <c r="B199" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C199">
-        <v>0.03129890453834116</v>
+        <v>0</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>0.1251956181533646</v>
+        <v>0</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -7200,10 +7200,10 @@
         <v>207</v>
       </c>
       <c r="B200" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C200">
-        <v>0.1546790409899459</v>
+        <v>0</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -7229,25 +7229,25 @@
         <v>208</v>
       </c>
       <c r="B201" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C201">
         <v>0</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="E201">
         <v>0</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="G201">
         <v>0</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>0.5787037037037037</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>209</v>
       </c>
       <c r="B202" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -7287,25 +7287,25 @@
         <v>210</v>
       </c>
       <c r="B203" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="C203">
         <v>0</v>
       </c>
       <c r="D203">
-        <v>0.3472222222222222</v>
+        <v>0</v>
       </c>
       <c r="E203">
         <v>0</v>
       </c>
       <c r="F203">
-        <v>0.2314814814814815</v>
+        <v>0</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
       <c r="H203">
-        <v>0.5787037037037037</v>
+        <v>0</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -7316,19 +7316,19 @@
         <v>211</v>
       </c>
       <c r="B204" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="D204">
         <v>0</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>3.682170542635659</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>7.55813953488372</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -7337,15 +7337,15 @@
         <v>0</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>0.7751937984496124</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="B205" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -7371,22 +7371,22 @@
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B206" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C206">
-        <v>0.5813953488372093</v>
+        <v>0</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>3.682170542635659</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>7.55813953488372</v>
+        <v>0</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -7395,18 +7395,18 @@
         <v>0</v>
       </c>
       <c r="I206">
-        <v>0.7751937984496124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="B207" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>0.03495281370150297</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>3.005941978329256</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -7432,7 +7432,7 @@
         <v>214</v>
       </c>
       <c r="B208" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -7461,10 +7461,10 @@
         <v>215</v>
       </c>
       <c r="B209" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C209">
-        <v>0.03495281370150297</v>
+        <v>0</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>3.005941978329256</v>
+        <v>0</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -7490,16 +7490,16 @@
         <v>216</v>
       </c>
       <c r="B210" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>0.4853160776505724</v>
       </c>
       <c r="D210">
         <v>0</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -7519,10 +7519,10 @@
         <v>217</v>
       </c>
       <c r="B211" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>1.560874089490114</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -7531,13 +7531,13 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>0.8324661810613945</v>
       </c>
       <c r="G211">
         <v>0</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>0.6243496357960457</v>
       </c>
       <c r="I211">
         <v>0</v>
@@ -7548,10 +7548,10 @@
         <v>218</v>
       </c>
       <c r="B212" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C212">
-        <v>1.560874089490114</v>
+        <v>0</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -7560,13 +7560,13 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>0.8324661810613945</v>
+        <v>0</v>
       </c>
       <c r="G212">
         <v>0</v>
       </c>
       <c r="H212">
-        <v>0.6243496357960457</v>
+        <v>0</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -7577,10 +7577,10 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>0.4264392324093816</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -7606,16 +7606,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C214">
-        <v>0.4264392324093816</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>0.8247422680412372</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -7635,25 +7635,25 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C215">
-        <v>0.3092783505154639</v>
+        <v>0.255591054313099</v>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215">
-        <v>0.8247422680412372</v>
+        <v>0.3833865814696485</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>1.150159744408946</v>
       </c>
       <c r="G215">
         <v>0</v>
       </c>
       <c r="H215">
-        <v>0.1030927835051546</v>
+        <v>0.5750798722044729</v>
       </c>
       <c r="I215">
         <v>0</v>
@@ -7661,28 +7661,28 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="B216" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C216">
-        <v>0.255591054313099</v>
+        <v>0</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>0.3833865814696485</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>1.150159744408946</v>
+        <v>0</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
       <c r="H216">
-        <v>0.5750798722044729</v>
+        <v>0</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -7690,13 +7690,13 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="B217" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>0.1221001221001221</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -7722,10 +7722,10 @@
         <v>223</v>
       </c>
       <c r="B218" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C218">
-        <v>0.1221001221001221</v>
+        <v>0</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -7751,25 +7751,25 @@
         <v>224</v>
       </c>
       <c r="B219" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>0.07460749967561957</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>0.01946282600233554</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>0.02595043466978072</v>
       </c>
       <c r="G219">
         <v>0</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>0.3665498897106526</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -7780,25 +7780,25 @@
         <v>225</v>
       </c>
       <c r="B220" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C220">
-        <v>0.07460749967561957</v>
+        <v>0</v>
       </c>
       <c r="D220">
         <v>0</v>
       </c>
       <c r="E220">
-        <v>0.01946282600233554</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>0.02595043466978072</v>
+        <v>0</v>
       </c>
       <c r="G220">
         <v>0</v>
       </c>
       <c r="H220">
-        <v>0.3665498897106526</v>
+        <v>0</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -7809,7 +7809,7 @@
         <v>226</v>
       </c>
       <c r="B221" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -7838,10 +7838,10 @@
         <v>227</v>
       </c>
       <c r="B222" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>0.1058201058201058</v>
       </c>
       <c r="I222">
         <v>0</v>
@@ -7867,10 +7867,10 @@
         <v>228</v>
       </c>
       <c r="B223" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C223">
-        <v>0.7936507936507936</v>
+        <v>0.03361344537815126</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="H223">
-        <v>0.1058201058201058</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -7896,10 +7896,10 @@
         <v>229</v>
       </c>
       <c r="B224" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C224">
-        <v>0.03361344537815126</v>
+        <v>0.4614093959731544</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -7908,13 +7908,13 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>0.04194630872483222</v>
       </c>
       <c r="G224">
         <v>0</v>
       </c>
       <c r="H224">
-        <v>0.01680672268907563</v>
+        <v>0</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -7925,10 +7925,10 @@
         <v>230</v>
       </c>
       <c r="B225" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C225">
-        <v>0.4614093959731544</v>
+        <v>0</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>0.04194630872483222</v>
+        <v>0</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -7954,13 +7954,13 @@
         <v>231</v>
       </c>
       <c r="B226" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C226">
         <v>0</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>4.371584699453552</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -7983,13 +7983,13 @@
         <v>232</v>
       </c>
       <c r="B227" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>0.1796407185628743</v>
       </c>
       <c r="D227">
-        <v>4.371584699453552</v>
+        <v>0</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -8012,10 +8012,10 @@
         <v>233</v>
       </c>
       <c r="B228" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C228">
-        <v>0.1796407185628743</v>
+        <v>0.1229709788489916</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>0.02459419576979833</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -8041,10 +8041,10 @@
         <v>234</v>
       </c>
       <c r="B229" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C229">
-        <v>0.1229709788489916</v>
+        <v>0.2861230329041488</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -8053,13 +8053,13 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1.072961373390558</v>
       </c>
       <c r="G229">
         <v>0</v>
       </c>
       <c r="H229">
-        <v>0.02459419576979833</v>
+        <v>0</v>
       </c>
       <c r="I229">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>235</v>
       </c>
       <c r="B230" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C230">
-        <v>0.2861230329041488</v>
+        <v>0</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.072961373390558</v>
+        <v>0</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -8099,7 +8099,7 @@
         <v>236</v>
       </c>
       <c r="B231" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -8128,7 +8128,7 @@
         <v>237</v>
       </c>
       <c r="B232" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>238</v>
       </c>
       <c r="B233" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -8186,10 +8186,10 @@
         <v>239</v>
       </c>
       <c r="B234" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>0.06561679790026247</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -8212,13 +8212,13 @@
     </row>
     <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>240</v>
+        <v>89</v>
       </c>
       <c r="B235" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C235">
-        <v>0.06561679790026247</v>
+        <v>0.2947678703021371</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -8227,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>0.2947678703021371</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -8241,13 +8241,13 @@
     </row>
     <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>92</v>
+        <v>240</v>
       </c>
       <c r="B236" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C236">
-        <v>0.2947678703021371</v>
+        <v>0</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -8256,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>0.2947678703021371</v>
+        <v>0</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -8273,16 +8273,16 @@
         <v>241</v>
       </c>
       <c r="B237" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>0.05777563793933559</v>
       </c>
       <c r="D237">
         <v>0</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>0.04814636494944632</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>0.01925854597977853</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -8302,16 +8302,16 @@
         <v>242</v>
       </c>
       <c r="B238" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C238">
-        <v>0.05777563793933559</v>
+        <v>0.03266906239790918</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238">
-        <v>0.04814636494944632</v>
+        <v>0</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -8320,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>0.01925854597977853</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -8331,10 +8331,10 @@
         <v>243</v>
       </c>
       <c r="B239" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C239">
-        <v>0.03266906239790918</v>
+        <v>0</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -8360,16 +8360,16 @@
         <v>244</v>
       </c>
       <c r="B240" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>0.3037535257105663</v>
       </c>
       <c r="D240">
         <v>0</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>0.02169668040789759</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -8389,16 +8389,16 @@
         <v>245</v>
       </c>
       <c r="B241" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C241">
-        <v>0.3037535257105663</v>
+        <v>0</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>0.02169668040789759</v>
+        <v>0</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -8418,7 +8418,7 @@
         <v>246</v>
       </c>
       <c r="B242" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -8447,10 +8447,10 @@
         <v>247</v>
       </c>
       <c r="B243" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>0.03188097768331562</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -8476,10 +8476,10 @@
         <v>248</v>
       </c>
       <c r="B244" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C244">
-        <v>0.03188097768331562</v>
+        <v>1.71990171990172</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>0.1228501228501229</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -8505,10 +8505,10 @@
         <v>249</v>
       </c>
       <c r="B245" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C245">
-        <v>1.71990171990172</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -8517,13 +8517,13 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="G245">
         <v>0</v>
       </c>
       <c r="H245">
-        <v>0.1228501228501229</v>
+        <v>0</v>
       </c>
       <c r="I245">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>250</v>
       </c>
       <c r="B246" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C246">
-        <v>0.297029702970297</v>
+        <v>0</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>0.09900990099009901</v>
+        <v>0</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -8563,7 +8563,7 @@
         <v>251</v>
       </c>
       <c r="B247" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>0.3468208092485549</v>
       </c>
       <c r="I247">
         <v>0</v>
@@ -8592,10 +8592,10 @@
         <v>252</v>
       </c>
       <c r="B248" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>0.2347417840375587</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="H248">
-        <v>0.3468208092485549</v>
+        <v>0</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -8621,10 +8621,10 @@
         <v>253</v>
       </c>
       <c r="B249" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C249">
-        <v>0.2347417840375587</v>
+        <v>0</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -8650,7 +8650,7 @@
         <v>254</v>
       </c>
       <c r="B250" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -8679,7 +8679,7 @@
         <v>255</v>
       </c>
       <c r="B251" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>256</v>
       </c>
       <c r="B252" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>0.944081336238199</v>
       </c>
       <c r="I253">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="H254">
-        <v>0.944081336238199</v>
+        <v>0.3154574132492113</v>
       </c>
       <c r="I254">
         <v>0</v>
@@ -8795,25 +8795,25 @@
         <v>259</v>
       </c>
       <c r="B255" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>0.1474926253687316</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>0.6391347099311701</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>0.5408062930186824</v>
       </c>
       <c r="G255">
         <v>0</v>
       </c>
       <c r="H255">
-        <v>0.3154574132492113</v>
+        <v>4.867256637168142</v>
       </c>
       <c r="I255">
         <v>0</v>
@@ -8824,25 +8824,25 @@
         <v>260</v>
       </c>
       <c r="B256" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C256">
-        <v>0.1474926253687316</v>
+        <v>0</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>0.6391347099311701</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>0.5408062930186824</v>
+        <v>0</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
       <c r="H256">
-        <v>4.867256637168142</v>
+        <v>0</v>
       </c>
       <c r="I256">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>261</v>
       </c>
       <c r="B257" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -8882,7 +8882,7 @@
         <v>262</v>
       </c>
       <c r="B258" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -8911,10 +8911,10 @@
         <v>263</v>
       </c>
       <c r="B259" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C259">
-        <v>0</v>
+        <v>0.0925925925925926</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>0.1455026455026455</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>264</v>
       </c>
       <c r="B260" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C260">
-        <v>0.0925925925925926</v>
+        <v>0.07722007722007722</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -8958,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="H260">
-        <v>0.1455026455026455</v>
+        <v>0</v>
       </c>
       <c r="I260">
         <v>0</v>
@@ -8969,10 +8969,10 @@
         <v>265</v>
       </c>
       <c r="B261" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C261">
-        <v>0.07722007722007722</v>
+        <v>0</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -8998,10 +8998,10 @@
         <v>266</v>
       </c>
       <c r="B262" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C262">
-        <v>0</v>
+        <v>0.2428166734115742</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -9016,7 +9016,7 @@
         <v>0</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>0.08093889113719142</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -9024,13 +9024,13 @@
     </row>
     <row r="263" spans="1:9">
       <c r="A263" t="s">
-        <v>267</v>
+        <v>154</v>
       </c>
       <c r="B263" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C263">
-        <v>0.2428166734115742</v>
+        <v>0</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -9045,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="H263">
-        <v>0.08093889113719142</v>
+        <v>0</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="264" spans="1:9">
       <c r="A264" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="B264" t="s">
         <v>336</v>
@@ -9085,10 +9085,10 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>0.06934812760055478</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -9114,10 +9114,10 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C266">
-        <v>0.06934812760055478</v>
+        <v>0</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -9143,7 +9143,7 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -9172,10 +9172,10 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>0.2658355486295719</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -9190,10 +9190,10 @@
         <v>0</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>0.01833348611238427</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>0.03666697222476854</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -9201,10 +9201,10 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C269">
-        <v>0.2658355486295719</v>
+        <v>1.468755563468043</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -9213,16 +9213,16 @@
         <v>0</v>
       </c>
       <c r="F269">
-        <v>0</v>
+        <v>0.008901548869503294</v>
       </c>
       <c r="G269">
         <v>0</v>
       </c>
       <c r="H269">
-        <v>0.01833348611238427</v>
+        <v>0</v>
       </c>
       <c r="I269">
-        <v>0.03666697222476854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -9230,10 +9230,10 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C270">
-        <v>1.468755563468043</v>
+        <v>0.2049180327868853</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="F270">
-        <v>0.008901548869503294</v>
+        <v>0</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -9259,10 +9259,10 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C271">
-        <v>0.2049180327868853</v>
+        <v>0</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -9271,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>0.089632506722438</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="F272">
-        <v>0.089632506722438</v>
+        <v>0.2906976744186047</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -9317,7 +9317,7 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="F273">
-        <v>0.2906976744186047</v>
+        <v>0</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -9375,10 +9375,10 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C275">
-        <v>0</v>
+        <v>0.2465331278890601</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>0.5238828967642527</v>
       </c>
       <c r="I275">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C276">
-        <v>0.2465331278890601</v>
+        <v>0</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="H276">
-        <v>0.5238828967642527</v>
+        <v>0.1623376623376623</v>
       </c>
       <c r="I276">
         <v>0</v>
@@ -9433,10 +9433,10 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C277">
-        <v>0</v>
+        <v>0.5154639175257731</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="H277">
-        <v>0.1623376623376623</v>
+        <v>0</v>
       </c>
       <c r="I277">
         <v>0</v>
@@ -9462,10 +9462,10 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C278">
-        <v>0.5154639175257731</v>
+        <v>0.6864988558352403</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -9491,10 +9491,10 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C279">
-        <v>0.6864988558352403</v>
+        <v>0</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -9520,7 +9520,7 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -9529,7 +9529,7 @@
         <v>0</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>0.9871668311944718</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -9549,16 +9549,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C281">
-        <v>0</v>
+        <v>0.3508771929824561</v>
       </c>
       <c r="D281">
         <v>0</v>
       </c>
       <c r="E281">
-        <v>0.9871668311944718</v>
+        <v>0</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -9581,7 +9581,7 @@
         <v>338</v>
       </c>
       <c r="C282">
-        <v>0.3508771929824561</v>
+        <v>0</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -9607,7 +9607,7 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -9636,13 +9636,13 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C284">
         <v>0</v>
       </c>
       <c r="D284">
-        <v>0</v>
+        <v>9.15032679738562</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2.61437908496732</v>
       </c>
       <c r="I284">
         <v>0</v>
@@ -9665,13 +9665,13 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C285">
-        <v>0</v>
+        <v>0.3942181340341656</v>
       </c>
       <c r="D285">
-        <v>9.15032679738562</v>
+        <v>0</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -9683,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="H285">
-        <v>2.61437908496732</v>
+        <v>0</v>
       </c>
       <c r="I285">
         <v>0</v>
@@ -9697,7 +9697,7 @@
         <v>328</v>
       </c>
       <c r="C286">
-        <v>0.3942181340341656</v>
+        <v>0</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -9810,7 +9810,7 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -9839,10 +9839,10 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C291">
-        <v>0</v>
+        <v>1.088031651829871</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>1.088031651829871</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -9868,10 +9868,10 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C292">
-        <v>1.088031651829871</v>
+        <v>0.9945750452079566</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>0</v>
       </c>
       <c r="F292">
-        <v>1.088031651829871</v>
+        <v>0.406871609403255</v>
       </c>
       <c r="G292">
         <v>0</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>0.135623869801085</v>
       </c>
       <c r="I292">
         <v>0</v>
@@ -9897,10 +9897,10 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C293">
-        <v>0.9945750452079566</v>
+        <v>0.2646903123345686</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -9909,13 +9909,13 @@
         <v>0</v>
       </c>
       <c r="F293">
-        <v>0.406871609403255</v>
+        <v>2.646903123345686</v>
       </c>
       <c r="G293">
         <v>0</v>
       </c>
       <c r="H293">
-        <v>0.135623869801085</v>
+        <v>7.173107464266808</v>
       </c>
       <c r="I293">
         <v>0</v>
@@ -9926,25 +9926,25 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="C294">
-        <v>0.2646903123345686</v>
+        <v>0</v>
       </c>
       <c r="D294">
         <v>0</v>
       </c>
       <c r="E294">
-        <v>0</v>
+        <v>0.2063451122001548</v>
       </c>
       <c r="F294">
-        <v>2.646903123345686</v>
+        <v>1.521795202476141</v>
       </c>
       <c r="G294">
         <v>0</v>
       </c>
       <c r="H294">
-        <v>7.173107464266808</v>
+        <v>1.805519731751354</v>
       </c>
       <c r="I294">
         <v>0</v>
@@ -9955,7 +9955,7 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -9964,16 +9964,16 @@
         <v>0</v>
       </c>
       <c r="E295">
-        <v>0.2063451122001548</v>
+        <v>0</v>
       </c>
       <c r="F295">
-        <v>1.521795202476141</v>
+        <v>0</v>
       </c>
       <c r="G295">
         <v>0</v>
       </c>
       <c r="H295">
-        <v>1.805519731751354</v>
+        <v>0</v>
       </c>
       <c r="I295">
         <v>0</v>
@@ -9984,7 +9984,7 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -10013,10 +10013,10 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C297">
-        <v>0</v>
+        <v>0.2697841726618705</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -10042,10 +10042,10 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C298">
-        <v>0.2697841726618705</v>
+        <v>0</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -10071,10 +10071,10 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C299">
-        <v>0</v>
+        <v>0.5477308294209703</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C300">
-        <v>0.5477308294209703</v>
+        <v>0</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>0.03434065934065934</v>
       </c>
       <c r="I300">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="H301">
-        <v>0.03434065934065934</v>
+        <v>0</v>
       </c>
       <c r="I301">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -10216,7 +10216,7 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -10245,10 +10245,10 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C305">
-        <v>0</v>
+        <v>0.2090956612650287</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -10274,10 +10274,10 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C306">
-        <v>0.2090956612650287</v>
+        <v>1.534170153417015</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10303,10 +10303,10 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C307">
-        <v>1.534170153417015</v>
+        <v>0.07570022710068131</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10315,13 +10315,13 @@
         <v>0</v>
       </c>
       <c r="F307">
-        <v>0</v>
+        <v>1.413070905879384</v>
       </c>
       <c r="G307">
         <v>0</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1.816805450416351</v>
       </c>
       <c r="I307">
         <v>0</v>
@@ -10332,10 +10332,10 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C308">
-        <v>0.07570022710068131</v>
+        <v>0.09857303792714983</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10344,13 +10344,13 @@
         <v>0</v>
       </c>
       <c r="F308">
-        <v>1.413070905879384</v>
+        <v>0.07979722117912129</v>
       </c>
       <c r="G308">
         <v>0</v>
       </c>
       <c r="H308">
-        <v>1.816805450416351</v>
+        <v>0.4130679684566279</v>
       </c>
       <c r="I308">
         <v>0</v>
@@ -10361,25 +10361,25 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C309">
-        <v>0.09857303792714983</v>
+        <v>4.081632653061225</v>
       </c>
       <c r="D309">
         <v>0</v>
       </c>
       <c r="E309">
-        <v>0</v>
+        <v>0.6802721088435374</v>
       </c>
       <c r="F309">
-        <v>0.07979722117912129</v>
+        <v>0</v>
       </c>
       <c r="G309">
         <v>0</v>
       </c>
       <c r="H309">
-        <v>0.4130679684566279</v>
+        <v>0</v>
       </c>
       <c r="I309">
         <v>0</v>
@@ -10390,16 +10390,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C310">
-        <v>4.081632653061225</v>
+        <v>0.0333555703802535</v>
       </c>
       <c r="D310">
         <v>0</v>
       </c>
       <c r="E310">
-        <v>0.6802721088435374</v>
+        <v>0</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>337</v>
       </c>
       <c r="C311">
-        <v>0.0333555703802535</v>
+        <v>1.262458471760797</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C312">
-        <v>1.262458471760797</v>
+        <v>0.02416626389560174</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -10477,10 +10477,10 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C313">
-        <v>0.02416626389560174</v>
+        <v>0</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C314">
-        <v>0</v>
+        <v>0.5069708491761723</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10518,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="F314">
-        <v>0</v>
+        <v>0.5069708491761723</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -10535,28 +10535,28 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C315">
-        <v>0.5069708491761723</v>
+        <v>1.207356450933595</v>
       </c>
       <c r="D315">
         <v>0</v>
       </c>
       <c r="E315">
-        <v>0</v>
+        <v>0.02105854274884178</v>
       </c>
       <c r="F315">
-        <v>0.5069708491761723</v>
+        <v>3.846693808788432</v>
       </c>
       <c r="G315">
         <v>0</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1.530254106415836</v>
       </c>
       <c r="I315">
-        <v>0</v>
+        <v>0.1614488277411203</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -10564,7 +10564,7 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C316">
         <v>0.4227053140096618</v>
@@ -10593,7 +10593,7 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -10651,7 +10651,7 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C319">
         <v>2.058383233532934</v>
@@ -10680,7 +10680,7 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -10709,7 +10709,7 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -10738,7 +10738,7 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C322">
         <v>0.08877052818464269</v>
@@ -10767,7 +10767,7 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C323">
         <v>0</v>

--- a/resources/count_implementation_rate.xlsx
+++ b/resources/count_implementation_rate.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilapaiva/Documents/GitHub/db-mining/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$318</definedName>
+  </definedNames>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="346">
   <si>
     <t>Projects</t>
   </si>
@@ -361,9 +377,6 @@
     <t>find-sec-bugs</t>
   </si>
   <si>
-    <t>search-guard</t>
-  </si>
-  <si>
     <t>flowable-engine</t>
   </si>
   <si>
@@ -523,9 +536,6 @@
     <t>DependencyCheck</t>
   </si>
   <si>
-    <t>smali</t>
-  </si>
-  <si>
     <t>intellij-community</t>
   </si>
   <si>
@@ -728,9 +738,6 @@
   </si>
   <si>
     <t>OsmAnd</t>
-  </si>
-  <si>
-    <t>Osmand</t>
   </si>
   <si>
     <t>osmdroid</t>
@@ -1066,8 +1073,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,6 +1086,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1116,8 +1139,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1125,16 +1150,23 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1176,12 +1208,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1208,14 +1240,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1242,6 +1275,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1417,14 +1451,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I323"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1453,310 +1496,310 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C2">
-        <v>1.026272577996716</v>
+        <v>1.0262725779967159</v>
       </c>
       <c r="E2">
-        <v>1.231527093596059</v>
+        <v>1.2315270935960589</v>
       </c>
       <c r="F2">
-        <v>1.293103448275862</v>
+        <v>1.2931034482758621</v>
       </c>
       <c r="H2">
-        <v>0.04105090311986864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>4.1050903119868642E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D3">
-        <v>0.76150356448477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.76150356448476997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C4">
-        <v>2.801302931596091</v>
+        <v>2.8013029315960911</v>
       </c>
       <c r="I4">
-        <v>0.06514657980456026</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>6.5146579804560262E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E5">
-        <v>0.4651162790697674</v>
+        <v>0.46511627906976738</v>
       </c>
       <c r="H5">
-        <v>0.310077519379845</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.31007751937984501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C6">
-        <v>0.5157297576070139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.51572975760701389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C7">
-        <v>0.02881844380403458</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>2.8818443804034581E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H8">
-        <v>0.2430133657351154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.24301336573511539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C10">
-        <v>0.033003300330033</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>3.3003300330033E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F11">
-        <v>0.09090909090909091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H13">
-        <v>0.2411091018685955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.24110910186859549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E14">
         <v>2.129719264278799</v>
       </c>
       <c r="H14">
-        <v>0.1290738948047757</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.12907389480477571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F15">
-        <v>0.02210921954455008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>2.2109219544550082E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F16">
-        <v>0.03946329913180742</v>
+        <v>3.9463299131807419E-2</v>
       </c>
       <c r="H16">
-        <v>0.03946329913180742</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>3.9463299131807419E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C17">
         <v>0.1792238229820087</v>
       </c>
       <c r="F17">
-        <v>0.02757289584338595</v>
+        <v>2.7572895843385951E-2</v>
       </c>
       <c r="H17">
-        <v>0.7996139794581926</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.79961397945819257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C19">
-        <v>0.1586042823156225</v>
+        <v>0.15860428231562251</v>
       </c>
       <c r="E19">
-        <v>2.299762093576527</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>2.2997620935765268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C20">
-        <v>0.6968641114982579</v>
+        <v>0.69686411149825789</v>
       </c>
       <c r="H20">
-        <v>0.5574912891986062</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.55749128919860624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C21">
-        <v>0.08831321754489255</v>
+        <v>8.8313217544892547E-2</v>
       </c>
       <c r="D21">
-        <v>0.1766264350897851</v>
+        <v>0.17662643508978509</v>
       </c>
       <c r="E21">
-        <v>0.05887547836326171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>5.8875478363261707E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C22">
-        <v>3.395843892549417</v>
+        <v>3.3958438925494172</v>
       </c>
       <c r="E22">
-        <v>0.2534211860111505</v>
+        <v>0.25342118601115049</v>
       </c>
       <c r="H22">
-        <v>0.05068423720223011</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>5.0684237202230108E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C23">
         <v>0.5204460966542751</v>
       </c>
       <c r="E23">
-        <v>0.03717472118959108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>3.717472118959108E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C24">
-        <v>0.01344989912575656</v>
+        <v>1.3449899125756559E-2</v>
       </c>
       <c r="E24">
         <v>0.1882985877605918</v>
       </c>
       <c r="H24">
-        <v>0.3227975790181574</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.32279757901815742</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C25">
         <v>0.1169317118802619</v>
@@ -1765,99 +1808,99 @@
         <v>0.1169317118802619</v>
       </c>
       <c r="H25">
-        <v>0.02338634237605238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>2.3386342376052381E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C26">
-        <v>0.09900990099009901</v>
+        <v>9.9009900990099015E-2</v>
       </c>
       <c r="H26">
-        <v>0.033003300330033</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>3.3003300330033E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C27">
-        <v>0.1968503937007874</v>
+        <v>0.19685039370078741</v>
       </c>
       <c r="E27">
-        <v>0.03280839895013123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>3.2808398950131233E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H28">
-        <v>0.04388370817334065</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>4.3883708173340648E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C29">
-        <v>0.02911208151382824</v>
+        <v>2.9112081513828238E-2</v>
       </c>
       <c r="H29">
-        <v>0.08733624454148471</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>8.7336244541484712E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C30">
         <v>0.2785515320334262</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C31">
-        <v>0.2692514808831448</v>
+        <v>0.26925148088314482</v>
       </c>
       <c r="E31">
-        <v>0.05385029617662897</v>
+        <v>5.3850296176628967E-2</v>
       </c>
       <c r="H31">
-        <v>0.1077005923532579</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.10770059235325791</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C32">
-        <v>1.265822784810127</v>
+        <v>1.2658227848101271</v>
       </c>
       <c r="E32">
         <v>3.164556962025316</v>
@@ -1866,178 +1909,178 @@
         <v>1.371308016877637</v>
       </c>
       <c r="H32">
-        <v>0.3164556962025317</v>
+        <v>0.31645569620253172</v>
       </c>
       <c r="I32">
-        <v>2.320675105485232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>2.3206751054852321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H33">
-        <v>0.5973120955699354</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.59731209556993536</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C34">
-        <v>0.09861932938856016</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>9.8619329388560162E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C35">
-        <v>0.04761904761904762</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>4.7619047619047623E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C36">
-        <v>0.008771929824561403</v>
+        <v>8.771929824561403E-3</v>
       </c>
       <c r="E36">
         <v>0.2192982456140351</v>
       </c>
       <c r="H36">
-        <v>0.01754385964912281</v>
+        <v>1.754385964912281E-2</v>
       </c>
       <c r="I36">
-        <v>0.02631578947368421</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>2.6315789473684209E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C37">
-        <v>0.149337315661751</v>
+        <v>0.14933731566175101</v>
       </c>
       <c r="E37">
-        <v>4.536120963225685</v>
+        <v>4.5361209632256854</v>
       </c>
       <c r="F37">
-        <v>1.064028374089976</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>1.0640283740899761</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C38">
         <v>0.1149425287356322</v>
       </c>
       <c r="H38">
-        <v>0.4597701149425287</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.45977011494252867</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C39">
-        <v>0.0522944175709243</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>5.2294417570924297E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C41">
-        <v>0.0547945205479452</v>
+        <v>5.4794520547945202E-2</v>
       </c>
       <c r="H41">
-        <v>0.0273972602739726</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>2.7397260273972601E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C42">
-        <v>0.4118533400301356</v>
+        <v>0.41185334003013557</v>
       </c>
       <c r="E42">
-        <v>0.05022601707684581</v>
+        <v>5.0226017076845812E-2</v>
       </c>
       <c r="F42">
-        <v>2.702159718734304</v>
+        <v>2.7021597187343041</v>
       </c>
       <c r="H42">
-        <v>0.01004520341536916</v>
+        <v>1.004520341536916E-2</v>
       </c>
       <c r="I42">
-        <v>0.4520341536916123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.45203415369161232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C43">
-        <v>0.06548788474132286</v>
+        <v>6.548788474132286E-2</v>
       </c>
       <c r="E43">
-        <v>0.03274394237066143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>3.274394237066143E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C44">
         <v>0.5425567989148864</v>
       </c>
       <c r="E44">
-        <v>0.04723150704839413</v>
+        <v>4.7231507048394128E-2</v>
       </c>
       <c r="F44">
         <v>0.3027660708230393</v>
@@ -2049,68 +2092,68 @@
         <v>0.1126289783461706</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C46">
-        <v>3.08839190628328</v>
+        <v>3.0883919062832801</v>
       </c>
       <c r="D46">
-        <v>0.9939652112176074</v>
+        <v>0.99396521121760739</v>
       </c>
       <c r="E46">
-        <v>0.05916459590580997</v>
+        <v>5.9164595905809969E-2</v>
       </c>
       <c r="F46">
-        <v>0.8874689385871495</v>
+        <v>0.88746893858714948</v>
       </c>
       <c r="H46">
-        <v>0.2484913028044018</v>
+        <v>0.24849130280440179</v>
       </c>
       <c r="I46">
-        <v>0.07099751508697195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>7.0997515086971955E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C47">
         <v>0.29296875</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C48">
-        <v>0.3643935450286309</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.36439354502863092</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C49">
         <v>3.344481605351171</v>
@@ -2122,276 +2165,276 @@
         <v>8.695652173913043</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C50">
-        <v>0.1700680272108843</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.17006802721088429</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C51">
         <v>0.5036373810856184</v>
       </c>
       <c r="H51">
-        <v>0.05595970900951316</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>5.5959709009513157E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C52">
-        <v>30.4421768707483</v>
+        <v>30.442176870748298</v>
       </c>
       <c r="E52">
-        <v>2.040816326530612</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>2.0408163265306118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C53">
-        <v>0.04373018476003061</v>
+        <v>4.3730184760030613E-2</v>
       </c>
       <c r="H53">
-        <v>0.05466273095003826</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>5.4662730950038263E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C54">
-        <v>0.02521432173474534</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>2.5214321734745339E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C55">
-        <v>0.7685738684884714</v>
+        <v>0.76857386848847142</v>
       </c>
       <c r="E55">
-        <v>0.1992598918303445</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.19925989183034451</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C57">
-        <v>0.3861003861003861</v>
+        <v>0.38610038610038611</v>
       </c>
       <c r="F57">
-        <v>0.3861003861003861</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>0.38610038610038611</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H60">
-        <v>0.1626016260162602</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.16260162601626019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F64">
-        <v>0.2865329512893983</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.28653295128939832</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C65">
-        <v>0.03790032215273829</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>3.7900322152738287E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C68">
-        <v>0.3094777562862669</v>
+        <v>0.30947775628626689</v>
       </c>
       <c r="H68">
-        <v>0.03868471953578336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>3.8684719535783361E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E69">
-        <v>0.02273243919072516</v>
+        <v>2.2732439190725161E-2</v>
       </c>
       <c r="F69">
-        <v>0.02273243919072516</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>2.2732439190725161E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H71">
         <v>1.666666666666667</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C72">
-        <v>0.312256049960968</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.31225604996096801</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F73">
-        <v>0.79155672823219</v>
+        <v>0.79155672823219003</v>
       </c>
       <c r="H73">
-        <v>0.5277044854881267</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.52770448548812665</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C74">
-        <v>0.1530612244897959</v>
+        <v>0.15306122448979589</v>
       </c>
       <c r="E74">
         <v>1.428571428571429</v>
@@ -2400,358 +2443,358 @@
         <v>0.1020408163265306</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C75">
-        <v>0.782122905027933</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.78212290502793302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C77">
-        <v>0.1618122977346279</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.16181229773462791</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H78">
-        <v>0.3194888178913738</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.31948881789137379</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H79">
         <v>0.2012072434607646</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C83">
-        <v>2.02020202020202</v>
+        <v>2.0202020202020199</v>
       </c>
       <c r="E83">
-        <v>3.097643097643098</v>
+        <v>3.0976430976430982</v>
       </c>
       <c r="F83">
-        <v>1.952861952861953</v>
+        <v>1.9528619528619531</v>
       </c>
       <c r="H83">
-        <v>1.548821548821549</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>1.5488215488215491</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C84">
-        <v>2.279202279202279</v>
+        <v>2.2792022792022788</v>
       </c>
       <c r="E84">
-        <v>0.2849002849002849</v>
+        <v>0.28490028490028491</v>
       </c>
       <c r="F84">
-        <v>0.1899335232668566</v>
+        <v>0.18993352326685661</v>
       </c>
       <c r="H84">
-        <v>0.2849002849002849</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.28490028490028491</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C85">
-        <v>0.04270462633451957</v>
+        <v>4.2704626334519567E-2</v>
       </c>
       <c r="F85">
-        <v>0.01423487544483986</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>1.423487544483986E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F86">
-        <v>0.2430133657351154</v>
+        <v>0.24301336573511539</v>
       </c>
       <c r="H86">
-        <v>0.425273390036452</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.42527339003645198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C90">
-        <v>2.680067001675042</v>
+        <v>2.6800670016750421</v>
       </c>
       <c r="E90">
-        <v>0.2233389168062535</v>
+        <v>0.22333891680625351</v>
       </c>
       <c r="H90">
         <v>0.1675041876046901</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C91">
         <v>0.1564945226917058</v>
       </c>
       <c r="F91">
-        <v>21.1528429838289</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>21.152842983828901</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C93">
-        <v>0.03916193459956922</v>
+        <v>3.9161934599569223E-2</v>
       </c>
       <c r="H93">
-        <v>0.07832386919913843</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>7.8323869199138432E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C94">
-        <v>0.7770713492784337</v>
+        <v>0.77707134927843369</v>
       </c>
       <c r="H94">
-        <v>0.544959128065395</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.54495912806539504</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C96">
-        <v>1.871809415768576</v>
+        <v>1.8718094157685761</v>
       </c>
       <c r="F96">
-        <v>0.3403289846851957</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.34032898468519568</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C99">
-        <v>0.2759889604415823</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.27598896044158228</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C100">
         <v>0.25</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C103">
-        <v>0.006390184676337147</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>6.390184676337147E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C107">
         <v>0.3748125937031484</v>
@@ -2763,2419 +2806,2380 @@
         <v>0.8995502248875562</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>330</v>
+      </c>
+      <c r="C108">
+        <v>1.9665228999794619</v>
+      </c>
+      <c r="E108">
+        <v>1.478743068391867</v>
+      </c>
+      <c r="F108">
+        <v>0.83179297597042512</v>
+      </c>
+      <c r="H108">
+        <v>5.6479769973300467E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>333</v>
-      </c>
-      <c r="C109">
-        <v>1.966522899979462</v>
-      </c>
-      <c r="E109">
-        <v>1.478743068391867</v>
-      </c>
-      <c r="F109">
-        <v>0.8317929759704251</v>
-      </c>
-      <c r="H109">
-        <v>0.05647976997330047</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>119</v>
       </c>
       <c r="B112" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="C112">
+        <v>1.340996168582375</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>332</v>
-      </c>
-      <c r="C113">
-        <v>1.340996168582375</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>326</v>
+      </c>
+      <c r="C116">
+        <v>8.223684210526315E-2</v>
+      </c>
+      <c r="F116">
+        <v>8.223684210526315E-2</v>
+      </c>
+      <c r="H116">
+        <v>4.1118421052631568E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C117">
-        <v>0.08223684210526315</v>
+        <v>1.1678918662556319</v>
+      </c>
+      <c r="E117">
+        <v>0.60469528100545411</v>
       </c>
       <c r="F117">
-        <v>0.08223684210526315</v>
+        <v>8.2997391510552521E-2</v>
       </c>
       <c r="H117">
-        <v>0.04111842105263157</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>0.12449608726582879</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C118">
-        <v>1.167891866255632</v>
-      </c>
-      <c r="E118">
-        <v>0.6046952810054541</v>
-      </c>
-      <c r="F118">
-        <v>0.08299739151055252</v>
-      </c>
-      <c r="H118">
-        <v>0.1244960872658288</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>6.1671292013567677E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>329</v>
-      </c>
-      <c r="C119">
-        <v>0.06167129201356768</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>330</v>
+      </c>
+      <c r="E120">
+        <v>4.9504950495049507E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>333</v>
-      </c>
-      <c r="E121">
-        <v>0.04950495049504951</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>332</v>
+      </c>
+      <c r="C121">
+        <v>1.2556053811659189</v>
+      </c>
+      <c r="H121">
+        <v>8.9686098654708515E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>335</v>
-      </c>
-      <c r="C122">
-        <v>1.255605381165919</v>
-      </c>
-      <c r="H122">
-        <v>0.08968609865470852</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>339</v>
+      </c>
+      <c r="F122">
+        <v>0.28308563340410481</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>342</v>
-      </c>
-      <c r="F123">
-        <v>0.2830856334041048</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>325</v>
+      </c>
+      <c r="C123">
+        <v>5.8958214081282199</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C124">
-        <v>5.89582140812822</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>0.45248868778280549</v>
+      </c>
+      <c r="E124">
+        <v>0.1190759704691593</v>
+      </c>
+      <c r="H124">
+        <v>0.63110264348654443</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C125">
-        <v>0.4524886877828055</v>
-      </c>
-      <c r="E125">
-        <v>0.1190759704691593</v>
-      </c>
-      <c r="H125">
-        <v>0.6311026434865444</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>0.1987632508833922</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C126">
-        <v>0.1987632508833922</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>1.6753224995811691E-2</v>
+      </c>
+      <c r="H126">
+        <v>1.6753224995811691E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>333</v>
-      </c>
-      <c r="C127">
-        <v>0.01675322499581169</v>
-      </c>
-      <c r="H127">
-        <v>0.01675322499581169</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>330</v>
+      </c>
+      <c r="F127">
+        <v>3.9936102236421717E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>333</v>
+        <v>335</v>
+      </c>
+      <c r="C128">
+        <v>0.1288992008249549</v>
       </c>
       <c r="F128">
-        <v>0.03993610223642172</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>3.4287187419438001</v>
+      </c>
+      <c r="H128">
+        <v>0.48981696313482848</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>136</v>
       </c>
       <c r="B129" t="s">
-        <v>338</v>
-      </c>
-      <c r="C129">
-        <v>0.1288992008249549</v>
-      </c>
-      <c r="F129">
-        <v>3.4287187419438</v>
-      </c>
-      <c r="H129">
-        <v>0.4898169631348285</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>137</v>
       </c>
       <c r="B130" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>340</v>
+      </c>
+      <c r="H130">
+        <v>8.4245998315080034E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>138</v>
       </c>
       <c r="B131" t="s">
-        <v>343</v>
+        <v>326</v>
+      </c>
+      <c r="C131">
+        <v>7.621951219512195E-2</v>
       </c>
       <c r="H131">
-        <v>0.08424599831508003</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>7.621951219512195E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>139</v>
       </c>
       <c r="B132" t="s">
-        <v>329</v>
-      </c>
-      <c r="C132">
-        <v>0.07621951219512195</v>
-      </c>
-      <c r="H132">
-        <v>0.07621951219512195</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>140</v>
       </c>
       <c r="B133" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>141</v>
       </c>
       <c r="B134" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>325</v>
+      </c>
+      <c r="C134">
+        <v>6.5800296101332451E-2</v>
+      </c>
+      <c r="D134">
+        <v>0.1151505181773318</v>
+      </c>
+      <c r="F134">
+        <v>1.6450074025333109E-2</v>
+      </c>
+      <c r="H134">
+        <v>6.5800296101332451E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>328</v>
-      </c>
-      <c r="C135">
-        <v>0.06580029610133245</v>
-      </c>
-      <c r="D135">
-        <v>0.1151505181773318</v>
-      </c>
-      <c r="F135">
-        <v>0.01645007402533311</v>
-      </c>
-      <c r="H135">
-        <v>0.06580029610133245</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>143</v>
       </c>
       <c r="B136" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="C136">
+        <v>0.10778765831312311</v>
+      </c>
+      <c r="H136">
+        <v>4.042037186742118E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>332</v>
-      </c>
-      <c r="C137">
-        <v>0.1077876583131231</v>
+        <v>329</v>
       </c>
       <c r="H137">
-        <v>0.04042037186742118</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>6.5104166666666657E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>145</v>
       </c>
       <c r="B138" t="s">
-        <v>332</v>
-      </c>
-      <c r="H138">
-        <v>0.06510416666666666</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>146</v>
       </c>
       <c r="B139" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>330</v>
+      </c>
+      <c r="C139">
+        <v>8.6730268863833476E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>147</v>
       </c>
       <c r="B140" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C140">
-        <v>0.08673026886383348</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>0.20964360587002101</v>
+      </c>
+      <c r="F140">
+        <v>0.20964360587002101</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>148</v>
       </c>
       <c r="B141" t="s">
-        <v>333</v>
-      </c>
-      <c r="C141">
-        <v>0.209643605870021</v>
-      </c>
-      <c r="F141">
-        <v>0.209643605870021</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>149</v>
       </c>
       <c r="B142" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>150</v>
       </c>
       <c r="B143" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>335</v>
+      </c>
+      <c r="C143">
+        <v>1.082699838746833</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>151</v>
       </c>
       <c r="B144" t="s">
-        <v>338</v>
-      </c>
-      <c r="C144">
-        <v>1.082699838746833</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>152</v>
       </c>
       <c r="B145" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>332</v>
+      </c>
+      <c r="C145">
+        <v>1.743060038734668</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>153</v>
       </c>
       <c r="B146" t="s">
-        <v>335</v>
-      </c>
-      <c r="C146">
-        <v>1.743060038734668</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>154</v>
       </c>
       <c r="B147" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>325</v>
+      </c>
+      <c r="C147">
+        <v>0.49701789264413521</v>
+      </c>
+      <c r="E147">
+        <v>0.29821073558648109</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>155</v>
       </c>
       <c r="B148" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C148">
-        <v>0.4970178926441352</v>
-      </c>
-      <c r="E148">
-        <v>0.2982107355864811</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>0.2178649237472767</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>156</v>
       </c>
       <c r="B149" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C149">
-        <v>0.2178649237472767</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>8.9847259658580425E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>157</v>
       </c>
       <c r="B150" t="s">
-        <v>329</v>
-      </c>
-      <c r="C150">
-        <v>0.08984725965858043</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>341</v>
+      </c>
+      <c r="H150">
+        <v>1.502403846153846E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>158</v>
       </c>
       <c r="B151" t="s">
-        <v>344</v>
-      </c>
-      <c r="H151">
-        <v>0.01502403846153846</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>159</v>
       </c>
       <c r="B152" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>160</v>
       </c>
       <c r="B153" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>161</v>
       </c>
       <c r="B154" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>331</v>
+      </c>
+      <c r="C154">
+        <v>0.78431372549019607</v>
+      </c>
+      <c r="E154">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="F154">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="H154">
+        <v>9.8039215686274508E-2</v>
+      </c>
+      <c r="I154">
+        <v>9.8039215686274508E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>162</v>
       </c>
       <c r="B155" t="s">
-        <v>334</v>
-      </c>
-      <c r="C155">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="E155">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="F155">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="H155">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="I155">
-        <v>0.09803921568627451</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>163</v>
       </c>
       <c r="B156" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>337</v>
+      </c>
+      <c r="C156">
+        <v>0.14584763212079621</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>164</v>
       </c>
       <c r="B157" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C157">
-        <v>0.1458476321207962</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>3.4048348655090217E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>165</v>
       </c>
       <c r="B158" t="s">
-        <v>333</v>
-      </c>
-      <c r="C158">
-        <v>0.03404834865509022</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>166</v>
       </c>
       <c r="B159" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>167</v>
       </c>
       <c r="B160" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>334</v>
+      </c>
+      <c r="C160">
+        <v>0.502092050209205</v>
+      </c>
+      <c r="H160">
+        <v>8.3682008368200833E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>168</v>
       </c>
       <c r="B161" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C161">
-        <v>0.502092050209205</v>
+        <v>2.2351241584212391E-2</v>
+      </c>
+      <c r="E161">
+        <v>4.7428244337231168E-2</v>
+      </c>
+      <c r="F161">
+        <v>1.1993349142748111E-2</v>
       </c>
       <c r="H161">
-        <v>0.08368200836820083</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>2.344154605173495E-2</v>
+      </c>
+      <c r="I161">
+        <v>1.0903044675225561E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>169</v>
       </c>
       <c r="B162" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>170</v>
       </c>
       <c r="B163" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C163">
-        <v>0.02235124158421239</v>
-      </c>
-      <c r="E163">
-        <v>0.04742824433723117</v>
+        <v>0.52811217194778837</v>
       </c>
       <c r="F163">
-        <v>0.01199334914274811</v>
+        <v>8.0992574143259066</v>
       </c>
       <c r="H163">
-        <v>0.02344154605173495</v>
-      </c>
-      <c r="I163">
-        <v>0.001090304467522556</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>2.306166689728334E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>171</v>
       </c>
       <c r="B164" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>326</v>
+      </c>
+      <c r="C164">
+        <v>0.52410901467505244</v>
+      </c>
+      <c r="H164">
+        <v>7.8616352201257872E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>172</v>
       </c>
       <c r="B165" t="s">
         <v>333</v>
       </c>
-      <c r="C165">
-        <v>0.5281121719477884</v>
-      </c>
-      <c r="F165">
-        <v>8.099257414325907</v>
-      </c>
-      <c r="H165">
-        <v>0.002306166689728334</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>173</v>
       </c>
       <c r="B166" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C166">
-        <v>0.5241090146750524</v>
+        <v>0.1097092704333516</v>
+      </c>
+      <c r="F166">
+        <v>2.7427317608337911E-2</v>
       </c>
       <c r="H166">
-        <v>0.07861635220125787</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>8.2281952825013716E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>174</v>
       </c>
       <c r="B167" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>175</v>
       </c>
       <c r="B168" t="s">
-        <v>336</v>
-      </c>
-      <c r="C168">
-        <v>0.1097092704333516</v>
+        <v>339</v>
       </c>
       <c r="F168">
-        <v>0.02742731760833791</v>
-      </c>
-      <c r="H168">
-        <v>0.08228195282501372</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>7.6074553062000769E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>176</v>
       </c>
       <c r="B169" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>177</v>
       </c>
       <c r="B170" t="s">
-        <v>342</v>
-      </c>
-      <c r="F170">
-        <v>0.07607455306200077</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>330</v>
+      </c>
+      <c r="H170">
+        <v>0.37453183520599248</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>178</v>
       </c>
       <c r="B171" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>179</v>
       </c>
       <c r="B172" t="s">
-        <v>333</v>
-      </c>
-      <c r="H172">
-        <v>0.3745318352059925</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>180</v>
       </c>
       <c r="B173" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>330</v>
+      </c>
+      <c r="F173">
+        <v>1.634241245136187</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>181</v>
       </c>
       <c r="B174" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>182</v>
       </c>
       <c r="B175" t="s">
-        <v>333</v>
-      </c>
-      <c r="F175">
-        <v>1.634241245136187</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>183</v>
       </c>
       <c r="B176" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>184</v>
       </c>
       <c r="B177" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>185</v>
       </c>
       <c r="B178" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="179" spans="1:9">
+      <c r="C178">
+        <v>6.2664494297531029E-2</v>
+      </c>
+      <c r="H178">
+        <v>2.5065797719012409E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>186</v>
       </c>
       <c r="B179" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>328</v>
+      </c>
+      <c r="C179">
+        <v>1.957831325301205</v>
+      </c>
+      <c r="E179">
+        <v>9.4126506024096394E-3</v>
+      </c>
+      <c r="F179">
+        <v>1.082454819277108</v>
+      </c>
+      <c r="H179">
+        <v>0.24472891566265059</v>
+      </c>
+      <c r="I179">
+        <v>9.4126506024096394E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>187</v>
       </c>
       <c r="B180" t="s">
-        <v>332</v>
-      </c>
-      <c r="C180">
-        <v>0.06266449429753103</v>
-      </c>
-      <c r="H180">
-        <v>0.02506579771901241</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>188</v>
       </c>
       <c r="B181" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="C181">
-        <v>1.957831325301205</v>
-      </c>
-      <c r="E181">
-        <v>0.009412650602409639</v>
+        <v>1.9065776930409908E-2</v>
       </c>
       <c r="F181">
-        <v>1.082454819277108</v>
+        <v>0.18112488083889419</v>
       </c>
       <c r="H181">
-        <v>0.2447289156626506</v>
-      </c>
-      <c r="I181">
-        <v>0.009412650602409639</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>4.7664442326024778E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>189</v>
       </c>
       <c r="B182" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>343</v>
+      </c>
+      <c r="C182">
+        <v>5.1921079958463137E-2</v>
+      </c>
+      <c r="F182">
+        <v>2.249913464866736</v>
+      </c>
+      <c r="H182">
+        <v>0.46728971962616822</v>
+      </c>
+      <c r="I182">
+        <v>1.730702665282105E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>190</v>
       </c>
       <c r="B183" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="C183">
-        <v>0.01906577693040991</v>
+        <v>0.18656716417910449</v>
       </c>
       <c r="F183">
-        <v>0.1811248808388942</v>
+        <v>6.3225538971807644</v>
       </c>
       <c r="H183">
-        <v>0.04766444232602478</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>0.87064676616915426</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>191</v>
       </c>
       <c r="B184" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C184">
-        <v>0.05192107995846314</v>
+        <v>0.41515308770108977</v>
       </c>
       <c r="F184">
-        <v>2.249913464866736</v>
-      </c>
-      <c r="H184">
-        <v>0.4672897196261682</v>
-      </c>
-      <c r="I184">
-        <v>0.01730702665282105</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>5.1894135962636222E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>192</v>
       </c>
       <c r="B185" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C185">
-        <v>0.1865671641791045</v>
-      </c>
-      <c r="F185">
-        <v>6.322553897180764</v>
-      </c>
-      <c r="H185">
-        <v>0.8706467661691543</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>3.4764470710933429E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>193</v>
       </c>
       <c r="B186" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="C186">
-        <v>0.4151530877010898</v>
-      </c>
-      <c r="F186">
-        <v>0.05189413596263622</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>0.24074631357207341</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>194</v>
       </c>
       <c r="B187" t="s">
-        <v>333</v>
-      </c>
-      <c r="C187">
-        <v>0.03476447071093343</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>195</v>
       </c>
       <c r="B188" t="s">
-        <v>329</v>
-      </c>
-      <c r="C188">
-        <v>0.2407463135720734</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>196</v>
       </c>
       <c r="B189" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>325</v>
+      </c>
+      <c r="C189">
+        <v>0.80126375090403879</v>
+      </c>
+      <c r="E189">
+        <v>6.0903658025960178E-2</v>
+      </c>
+      <c r="F189">
+        <v>0.13988808952837731</v>
+      </c>
+      <c r="H189">
+        <v>0.17700125613794679</v>
+      </c>
+      <c r="I189">
+        <v>9.5161965665562789E-4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>197</v>
       </c>
       <c r="B190" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>198</v>
       </c>
       <c r="B191" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C191">
-        <v>0.8012637509040388</v>
-      </c>
-      <c r="E191">
-        <v>0.06090365802596018</v>
-      </c>
-      <c r="F191">
-        <v>0.1398880895283773</v>
+        <v>3.0180345969819649</v>
       </c>
       <c r="H191">
-        <v>0.1770012561379468</v>
-      </c>
-      <c r="I191">
-        <v>0.0009516196566556279</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>0.18402649981597349</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>199</v>
       </c>
       <c r="B192" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>200</v>
       </c>
       <c r="B193" t="s">
-        <v>333</v>
-      </c>
-      <c r="C193">
-        <v>3.018034596981965</v>
-      </c>
-      <c r="H193">
-        <v>0.1840264998159735</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>201</v>
       </c>
       <c r="B194" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>339</v>
+      </c>
+      <c r="F194">
+        <v>1.3627227199945489E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>202</v>
       </c>
       <c r="B195" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>330</v>
+      </c>
+      <c r="C195">
+        <v>3.1298904538341159E-2</v>
+      </c>
+      <c r="F195">
+        <v>0.12519561815336461</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>203</v>
       </c>
       <c r="B196" t="s">
-        <v>342</v>
-      </c>
-      <c r="F196">
-        <v>0.01362722719994549</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>326</v>
+      </c>
+      <c r="C196">
+        <v>0.15467904098994589</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>204</v>
       </c>
       <c r="B197" t="s">
-        <v>333</v>
-      </c>
-      <c r="C197">
-        <v>0.03129890453834116</v>
-      </c>
-      <c r="F197">
-        <v>0.1251956181533646</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>205</v>
       </c>
       <c r="B198" t="s">
-        <v>329</v>
-      </c>
-      <c r="C198">
-        <v>0.1546790409899459</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>206</v>
       </c>
       <c r="B199" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>331</v>
+      </c>
+      <c r="D199">
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="F199">
+        <v>0.23148148148148151</v>
+      </c>
+      <c r="H199">
+        <v>0.57870370370370372</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>207</v>
       </c>
       <c r="B200" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>208</v>
       </c>
       <c r="B201" t="s">
-        <v>334</v>
-      </c>
-      <c r="D201">
-        <v>0.3472222222222222</v>
-      </c>
-      <c r="F201">
-        <v>0.2314814814814815</v>
-      </c>
-      <c r="H201">
-        <v>0.5787037037037037</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>209</v>
       </c>
       <c r="B202" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>330</v>
+      </c>
+      <c r="C202">
+        <v>0.58139534883720934</v>
+      </c>
+      <c r="E202">
+        <v>3.6821705426356588</v>
+      </c>
+      <c r="F202">
+        <v>7.5581395348837201</v>
+      </c>
+      <c r="I202">
+        <v>0.77519379844961245</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>210</v>
       </c>
       <c r="B203" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>211</v>
       </c>
       <c r="B204" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C204">
-        <v>0.5813953488372093</v>
-      </c>
-      <c r="E204">
-        <v>3.682170542635659</v>
+        <v>3.4952813701502973E-2</v>
       </c>
       <c r="F204">
-        <v>7.55813953488372</v>
-      </c>
-      <c r="I204">
-        <v>0.7751937984496124</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>3.0059419783292558</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="B205" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B206" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B207" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C207">
-        <v>0.03495281370150297</v>
-      </c>
-      <c r="F207">
-        <v>3.005941978329256</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>0.48531607765057239</v>
+      </c>
+      <c r="E207">
+        <v>0.51020408163265307</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B208" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>330</v>
+      </c>
+      <c r="C208">
+        <v>1.5608740894901141</v>
+      </c>
+      <c r="F208">
+        <v>0.83246618106139447</v>
+      </c>
+      <c r="H208">
+        <v>0.62434963579604574</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B209" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B210" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C210">
-        <v>0.4853160776505724</v>
-      </c>
-      <c r="E210">
-        <v>0.5102040816326531</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>0.42643923240938159</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B211" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C211">
-        <v>1.560874089490114</v>
-      </c>
-      <c r="F211">
-        <v>0.8324661810613945</v>
+        <v>0.30927835051546387</v>
+      </c>
+      <c r="E211">
+        <v>0.82474226804123718</v>
       </c>
       <c r="H211">
-        <v>0.6243496357960457</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>0.10309278350515461</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B212" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>325</v>
+      </c>
+      <c r="C212">
+        <v>0.25559105431309898</v>
+      </c>
+      <c r="E212">
+        <v>0.38338658146964849</v>
+      </c>
+      <c r="F212">
+        <v>1.150159744408946</v>
+      </c>
+      <c r="H212">
+        <v>0.57507987220447288</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="B213" t="s">
-        <v>328</v>
-      </c>
-      <c r="C213">
-        <v>0.4264392324093816</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C214">
-        <v>0.3092783505154639</v>
-      </c>
-      <c r="E214">
-        <v>0.8247422680412372</v>
-      </c>
-      <c r="H214">
-        <v>0.1030927835051546</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>0.1221001221001221</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>328</v>
-      </c>
-      <c r="C215">
-        <v>0.255591054313099</v>
-      </c>
-      <c r="E215">
-        <v>0.3833865814696485</v>
-      </c>
-      <c r="F215">
-        <v>1.150159744408946</v>
-      </c>
-      <c r="H215">
-        <v>0.5750798722044729</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>222</v>
+      </c>
+      <c r="B216" t="s">
+        <v>330</v>
+      </c>
+      <c r="C216">
+        <v>7.4607499675619568E-2</v>
+      </c>
+      <c r="E216">
+        <v>1.9462826002335541E-2</v>
+      </c>
+      <c r="F216">
+        <v>2.5950434669780718E-2</v>
+      </c>
+      <c r="H216">
+        <v>0.36654988971065261</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>223</v>
+      </c>
+      <c r="B217" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>224</v>
+      </c>
+      <c r="B218" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>225</v>
+      </c>
+      <c r="B219" t="s">
+        <v>334</v>
+      </c>
+      <c r="C219">
+        <v>0.79365079365079361</v>
+      </c>
+      <c r="H219">
+        <v>0.1058201058201058</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>226</v>
+      </c>
+      <c r="B220" t="s">
+        <v>325</v>
+      </c>
+      <c r="C220">
+        <v>3.3613445378151259E-2</v>
+      </c>
+      <c r="H220">
+        <v>1.680672268907563E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>227</v>
+      </c>
+      <c r="B221" t="s">
+        <v>326</v>
+      </c>
+      <c r="C221">
+        <v>0.46140939597315439</v>
+      </c>
+      <c r="F221">
+        <v>4.1946308724832217E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>228</v>
+      </c>
+      <c r="B222" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>229</v>
+      </c>
+      <c r="B223" t="s">
+        <v>331</v>
+      </c>
+      <c r="D223">
+        <v>4.3715846994535523</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>230</v>
+      </c>
+      <c r="B224" t="s">
+        <v>330</v>
+      </c>
+      <c r="C224">
+        <v>0.17964071856287431</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>231</v>
+      </c>
+      <c r="B225" t="s">
+        <v>334</v>
+      </c>
+      <c r="C225">
+        <v>0.12297097884899159</v>
+      </c>
+      <c r="H225">
+        <v>2.4594195769798328E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>232</v>
+      </c>
+      <c r="B226" t="s">
+        <v>342</v>
+      </c>
+      <c r="C226">
+        <v>0.28612303290414881</v>
+      </c>
+      <c r="F226">
+        <v>1.0729613733905581</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>233</v>
+      </c>
+      <c r="B227" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>234</v>
+      </c>
+      <c r="B228" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>235</v>
+      </c>
+      <c r="B229" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>236</v>
+      </c>
+      <c r="B230" t="s">
+        <v>326</v>
+      </c>
+      <c r="C230">
+        <v>6.5616797900262466E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>89</v>
       </c>
-      <c r="B216" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="A217" t="s">
-        <v>222</v>
-      </c>
-      <c r="B217" t="s">
-        <v>330</v>
-      </c>
-      <c r="C217">
-        <v>0.1221001221001221</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="A218" t="s">
-        <v>223</v>
-      </c>
-      <c r="B218" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="A219" t="s">
-        <v>224</v>
-      </c>
-      <c r="B219" t="s">
-        <v>333</v>
-      </c>
-      <c r="C219">
-        <v>0.07460749967561957</v>
-      </c>
-      <c r="E219">
-        <v>0.01946282600233554</v>
-      </c>
-      <c r="F219">
-        <v>0.02595043466978072</v>
-      </c>
-      <c r="H219">
-        <v>0.3665498897106526</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" t="s">
-        <v>225</v>
-      </c>
-      <c r="B220" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="A221" t="s">
-        <v>226</v>
-      </c>
-      <c r="B221" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="A222" t="s">
-        <v>227</v>
-      </c>
-      <c r="B222" t="s">
-        <v>337</v>
-      </c>
-      <c r="C222">
-        <v>0.7936507936507936</v>
-      </c>
-      <c r="H222">
-        <v>0.1058201058201058</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="A223" t="s">
-        <v>228</v>
-      </c>
-      <c r="B223" t="s">
-        <v>328</v>
-      </c>
-      <c r="C223">
-        <v>0.03361344537815126</v>
-      </c>
-      <c r="H223">
-        <v>0.01680672268907563</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="A224" t="s">
-        <v>229</v>
-      </c>
-      <c r="B224" t="s">
-        <v>329</v>
-      </c>
-      <c r="C224">
-        <v>0.4614093959731544</v>
-      </c>
-      <c r="F224">
-        <v>0.04194630872483222</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225" t="s">
-        <v>230</v>
-      </c>
-      <c r="B225" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="A226" t="s">
-        <v>231</v>
-      </c>
-      <c r="B226" t="s">
-        <v>334</v>
-      </c>
-      <c r="D226">
-        <v>4.371584699453552</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="A227" t="s">
-        <v>232</v>
-      </c>
-      <c r="B227" t="s">
-        <v>333</v>
-      </c>
-      <c r="C227">
-        <v>0.1796407185628743</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228" t="s">
-        <v>233</v>
-      </c>
-      <c r="B228" t="s">
-        <v>337</v>
-      </c>
-      <c r="C228">
-        <v>0.1229709788489916</v>
-      </c>
-      <c r="H228">
-        <v>0.02459419576979833</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="A229" t="s">
-        <v>234</v>
-      </c>
-      <c r="B229" t="s">
-        <v>345</v>
-      </c>
-      <c r="C229">
-        <v>0.2861230329041488</v>
-      </c>
-      <c r="F229">
-        <v>1.072961373390558</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230" t="s">
-        <v>235</v>
-      </c>
-      <c r="B230" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="A231" t="s">
-        <v>236</v>
-      </c>
       <c r="B231" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>326</v>
+      </c>
+      <c r="C231">
+        <v>0.29476787030213708</v>
+      </c>
+      <c r="F231">
+        <v>0.29476787030213708</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>237</v>
       </c>
       <c r="B232" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>238</v>
       </c>
       <c r="B233" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>334</v>
+      </c>
+      <c r="C233">
+        <v>5.7775637939335593E-2</v>
+      </c>
+      <c r="E233">
+        <v>4.8146364949446317E-2</v>
+      </c>
+      <c r="H233">
+        <v>1.9258545979778531E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>239</v>
       </c>
       <c r="B234" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C234">
-        <v>0.06561679790026247</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>3.2669062397909177E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="B235" t="s">
-        <v>329</v>
-      </c>
-      <c r="C235">
-        <v>0.2947678703021371</v>
-      </c>
-      <c r="F235">
-        <v>0.2947678703021371</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B236" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>334</v>
+      </c>
+      <c r="C236">
+        <v>0.3037535257105663</v>
+      </c>
+      <c r="E236">
+        <v>2.169668040789759E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B237" t="s">
-        <v>337</v>
-      </c>
-      <c r="C237">
-        <v>0.05777563793933559</v>
-      </c>
-      <c r="E237">
-        <v>0.04814636494944632</v>
-      </c>
-      <c r="H237">
-        <v>0.01925854597977853</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B238" t="s">
-        <v>331</v>
-      </c>
-      <c r="C238">
-        <v>0.03266906239790918</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B239" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="240" spans="1:8">
+      <c r="C239">
+        <v>3.1880977683315617E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B240" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C240">
-        <v>0.3037535257105663</v>
-      </c>
-      <c r="E240">
-        <v>0.02169668040789759</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>1.7199017199017199</v>
+      </c>
+      <c r="H240">
+        <v>0.12285012285012289</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B241" t="s">
+        <v>331</v>
+      </c>
+      <c r="C241">
+        <v>0.29702970297029702</v>
+      </c>
+      <c r="F241">
+        <v>9.9009900990099015E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>247</v>
+      </c>
+      <c r="B242" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>248</v>
+      </c>
+      <c r="B243" t="s">
+        <v>325</v>
+      </c>
+      <c r="H243">
+        <v>0.34682080924855491</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>249</v>
+      </c>
+      <c r="B244" t="s">
+        <v>330</v>
+      </c>
+      <c r="C244">
+        <v>0.23474178403755869</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>250</v>
+      </c>
+      <c r="B245" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>251</v>
+      </c>
+      <c r="B246" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>252</v>
+      </c>
+      <c r="B247" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>253</v>
+      </c>
+      <c r="B248" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>254</v>
+      </c>
+      <c r="B249" t="s">
+        <v>335</v>
+      </c>
+      <c r="H249">
+        <v>0.94408133623819901</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>255</v>
+      </c>
+      <c r="B250" t="s">
+        <v>335</v>
+      </c>
+      <c r="H250">
+        <v>0.31545741324921128</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>256</v>
+      </c>
+      <c r="B251" t="s">
+        <v>330</v>
+      </c>
+      <c r="C251">
+        <v>0.14749262536873159</v>
+      </c>
+      <c r="E251">
+        <v>0.63913470993117005</v>
+      </c>
+      <c r="F251">
+        <v>0.54080629301868244</v>
+      </c>
+      <c r="H251">
+        <v>4.8672566371681416</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>257</v>
+      </c>
+      <c r="B252" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
-      <c r="A242" t="s">
-        <v>246</v>
-      </c>
-      <c r="B242" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="A243" t="s">
-        <v>247</v>
-      </c>
-      <c r="B243" t="s">
-        <v>337</v>
-      </c>
-      <c r="C243">
-        <v>0.03188097768331562</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="A244" t="s">
-        <v>248</v>
-      </c>
-      <c r="B244" t="s">
-        <v>333</v>
-      </c>
-      <c r="C244">
-        <v>1.71990171990172</v>
-      </c>
-      <c r="H244">
-        <v>0.1228501228501229</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="A245" t="s">
-        <v>249</v>
-      </c>
-      <c r="B245" t="s">
-        <v>334</v>
-      </c>
-      <c r="C245">
-        <v>0.297029702970297</v>
-      </c>
-      <c r="F245">
-        <v>0.09900990099009901</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="A246" t="s">
-        <v>250</v>
-      </c>
-      <c r="B246" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
-      <c r="A247" t="s">
-        <v>251</v>
-      </c>
-      <c r="B247" t="s">
-        <v>328</v>
-      </c>
-      <c r="H247">
-        <v>0.3468208092485549</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="A248" t="s">
-        <v>252</v>
-      </c>
-      <c r="B248" t="s">
-        <v>333</v>
-      </c>
-      <c r="C248">
-        <v>0.2347417840375587</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249" t="s">
-        <v>253</v>
-      </c>
-      <c r="B249" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250" t="s">
-        <v>254</v>
-      </c>
-      <c r="B250" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251" t="s">
-        <v>255</v>
-      </c>
-      <c r="B251" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
-      <c r="A252" t="s">
-        <v>256</v>
-      </c>
-      <c r="B252" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B253" t="s">
-        <v>338</v>
-      </c>
-      <c r="H253">
-        <v>0.944081336238199</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B254" t="s">
-        <v>338</v>
-      </c>
-      <c r="H254">
-        <v>0.3154574132492113</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B255" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C255">
-        <v>0.1474926253687316</v>
-      </c>
-      <c r="E255">
-        <v>0.6391347099311701</v>
-      </c>
-      <c r="F255">
-        <v>0.5408062930186824</v>
+        <v>9.2592592592592601E-2</v>
       </c>
       <c r="H255">
-        <v>4.867256637168142</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>0.14550264550264549</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B256" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9">
+        <v>339</v>
+      </c>
+      <c r="C256">
+        <v>7.7220077220077218E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B257" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B258" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9">
+        <v>331</v>
+      </c>
+      <c r="C258">
+        <v>0.2428166734115742</v>
+      </c>
+      <c r="H258">
+        <v>8.0938891137191424E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B259" t="s">
         <v>333</v>
       </c>
-      <c r="C259">
-        <v>0.0925925925925926</v>
-      </c>
-      <c r="H259">
-        <v>0.1455026455026455</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9">
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B260" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C260">
-        <v>0.07722007722007722</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9">
+        <v>6.9348127600554782E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B261" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B262" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>268</v>
+      </c>
+      <c r="B263" t="s">
+        <v>328</v>
+      </c>
+      <c r="C263">
+        <v>0.26583554862957193</v>
+      </c>
+      <c r="H263">
+        <v>1.8333486112384272E-2</v>
+      </c>
+      <c r="I263">
+        <v>3.6666972224768543E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>269</v>
+      </c>
+      <c r="B264" t="s">
         <v>334</v>
       </c>
-      <c r="C262">
-        <v>0.2428166734115742</v>
-      </c>
-      <c r="H262">
-        <v>0.08093889113719142</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9">
-      <c r="A263" t="s">
-        <v>154</v>
-      </c>
-      <c r="B263" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9">
-      <c r="A264" t="s">
-        <v>267</v>
-      </c>
-      <c r="B264" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9">
+      <c r="C264">
+        <v>1.4687555634680429</v>
+      </c>
+      <c r="F264">
+        <v>8.9015488695032945E-3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B265" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C265">
-        <v>0.06934812760055478</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9">
+        <v>0.20491803278688531</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B266" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9">
+        <v>330</v>
+      </c>
+      <c r="F266">
+        <v>8.9632506722437999E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B267" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9">
+        <v>335</v>
+      </c>
+      <c r="F267">
+        <v>0.29069767441860472</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B268" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>274</v>
+      </c>
+      <c r="B269" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>275</v>
+      </c>
+      <c r="B270" t="s">
+        <v>334</v>
+      </c>
+      <c r="C270">
+        <v>0.24653312788906009</v>
+      </c>
+      <c r="H270">
+        <v>0.5238828967642527</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>276</v>
+      </c>
+      <c r="B271" t="s">
+        <v>340</v>
+      </c>
+      <c r="H271">
+        <v>0.16233766233766231</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>277</v>
+      </c>
+      <c r="B272" t="s">
+        <v>330</v>
+      </c>
+      <c r="C272">
+        <v>0.51546391752577314</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>278</v>
+      </c>
+      <c r="B273" t="s">
+        <v>330</v>
+      </c>
+      <c r="C273">
+        <v>0.68649885583524028</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>279</v>
+      </c>
+      <c r="B274" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>280</v>
+      </c>
+      <c r="B275" t="s">
         <v>331</v>
       </c>
-      <c r="C268">
-        <v>0.2658355486295719</v>
-      </c>
-      <c r="H268">
-        <v>0.01833348611238427</v>
-      </c>
-      <c r="I268">
-        <v>0.03666697222476854</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9">
-      <c r="A269" t="s">
-        <v>272</v>
-      </c>
-      <c r="B269" t="s">
-        <v>337</v>
-      </c>
-      <c r="C269">
-        <v>1.468755563468043</v>
-      </c>
-      <c r="F269">
-        <v>0.008901548869503294</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9">
-      <c r="A270" t="s">
-        <v>273</v>
-      </c>
-      <c r="B270" t="s">
-        <v>333</v>
-      </c>
-      <c r="C270">
-        <v>0.2049180327868853</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9">
-      <c r="A271" t="s">
-        <v>274</v>
-      </c>
-      <c r="B271" t="s">
-        <v>333</v>
-      </c>
-      <c r="F271">
-        <v>0.089632506722438</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9">
-      <c r="A272" t="s">
-        <v>275</v>
-      </c>
-      <c r="B272" t="s">
-        <v>338</v>
-      </c>
-      <c r="F272">
-        <v>0.2906976744186047</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="A273" t="s">
-        <v>276</v>
-      </c>
-      <c r="B273" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="A274" t="s">
-        <v>277</v>
-      </c>
-      <c r="B274" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275" t="s">
-        <v>278</v>
-      </c>
-      <c r="B275" t="s">
-        <v>337</v>
-      </c>
-      <c r="C275">
-        <v>0.2465331278890601</v>
-      </c>
-      <c r="H275">
-        <v>0.5238828967642527</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+      <c r="E275">
+        <v>0.98716683119447179</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B276" t="s">
-        <v>343</v>
-      </c>
-      <c r="H276">
-        <v>0.1623376623376623</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>335</v>
+      </c>
+      <c r="C276">
+        <v>0.35087719298245612</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B277" t="s">
-        <v>333</v>
-      </c>
-      <c r="C277">
-        <v>0.5154639175257731</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B278" t="s">
-        <v>333</v>
-      </c>
-      <c r="C278">
-        <v>0.6864988558352403</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B279" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>328</v>
+      </c>
+      <c r="D279">
+        <v>9.1503267973856204</v>
+      </c>
+      <c r="H279">
+        <v>2.6143790849673199</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B280" t="s">
-        <v>334</v>
-      </c>
-      <c r="E280">
-        <v>0.9871668311944718</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>331</v>
+      </c>
+      <c r="C280">
+        <v>0.39421813403416561</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B281" t="s">
-        <v>338</v>
-      </c>
-      <c r="C281">
-        <v>0.3508771929824561</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B282" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B283" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B284" t="s">
-        <v>331</v>
-      </c>
-      <c r="D284">
-        <v>9.15032679738562</v>
-      </c>
-      <c r="H284">
-        <v>2.61437908496732</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B285" t="s">
-        <v>334</v>
-      </c>
-      <c r="C285">
-        <v>0.3942181340341656</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B286" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>341</v>
+      </c>
+      <c r="C286">
+        <v>1.0880316518298709</v>
+      </c>
+      <c r="F286">
+        <v>1.0880316518298709</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B287" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="288" spans="1:8">
+      <c r="C287">
+        <v>0.99457504520795659</v>
+      </c>
+      <c r="F287">
+        <v>0.40687160940325501</v>
+      </c>
+      <c r="H287">
+        <v>0.13562386980108501</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B288" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>340</v>
+      </c>
+      <c r="C288">
+        <v>0.26469031233456858</v>
+      </c>
+      <c r="F288">
+        <v>2.6469031233456861</v>
+      </c>
+      <c r="H288">
+        <v>7.173107464266808</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B289" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>324</v>
+      </c>
+      <c r="E289">
+        <v>0.20634511220015481</v>
+      </c>
+      <c r="F289">
+        <v>1.521795202476141</v>
+      </c>
+      <c r="H289">
+        <v>1.8055197317513541</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B290" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B291" t="s">
-        <v>344</v>
-      </c>
-      <c r="C291">
-        <v>1.088031651829871</v>
-      </c>
-      <c r="F291">
-        <v>1.088031651829871</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B292" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C292">
-        <v>0.9945750452079566</v>
-      </c>
-      <c r="F292">
-        <v>0.406871609403255</v>
-      </c>
-      <c r="H292">
-        <v>0.135623869801085</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>0.26978417266187049</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B293" t="s">
-        <v>343</v>
-      </c>
-      <c r="C293">
-        <v>0.2646903123345686</v>
-      </c>
-      <c r="F293">
-        <v>2.646903123345686</v>
-      </c>
-      <c r="H293">
-        <v>7.173107464266808</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B294" t="s">
+        <v>331</v>
+      </c>
+      <c r="C294">
+        <v>0.54773082942097029</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>300</v>
+      </c>
+      <c r="B295" t="s">
+        <v>335</v>
+      </c>
+      <c r="H295">
+        <v>3.4340659340659337E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>301</v>
+      </c>
+      <c r="B296" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>302</v>
+      </c>
+      <c r="B297" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>303</v>
+      </c>
+      <c r="B298" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>304</v>
+      </c>
+      <c r="B299" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>305</v>
+      </c>
+      <c r="B300" t="s">
+        <v>326</v>
+      </c>
+      <c r="C300">
+        <v>0.20909566126502871</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>306</v>
+      </c>
+      <c r="B301" t="s">
+        <v>330</v>
+      </c>
+      <c r="C301">
+        <v>1.5341701534170149</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>307</v>
+      </c>
+      <c r="B302" t="s">
+        <v>329</v>
+      </c>
+      <c r="C302">
+        <v>7.5700227100681305E-2</v>
+      </c>
+      <c r="F302">
+        <v>1.413070905879384</v>
+      </c>
+      <c r="H302">
+        <v>1.8168054504163511</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>308</v>
+      </c>
+      <c r="B303" t="s">
         <v>327</v>
       </c>
-      <c r="E294">
-        <v>0.2063451122001548</v>
-      </c>
-      <c r="F294">
-        <v>1.521795202476141</v>
-      </c>
-      <c r="H294">
-        <v>1.805519731751354</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
-      <c r="A295" t="s">
-        <v>298</v>
-      </c>
-      <c r="B295" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
-      <c r="A296" t="s">
-        <v>299</v>
-      </c>
-      <c r="B296" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
-      <c r="A297" t="s">
-        <v>300</v>
-      </c>
-      <c r="B297" t="s">
-        <v>333</v>
-      </c>
-      <c r="C297">
-        <v>0.2697841726618705</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
-      <c r="A298" t="s">
-        <v>301</v>
-      </c>
-      <c r="B298" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
-      <c r="A299" t="s">
-        <v>302</v>
-      </c>
-      <c r="B299" t="s">
+      <c r="C303">
+        <v>9.8573037927149831E-2</v>
+      </c>
+      <c r="F303">
+        <v>7.9797221179121289E-2</v>
+      </c>
+      <c r="H303">
+        <v>0.41306796845662791</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>309</v>
+      </c>
+      <c r="B304" t="s">
+        <v>325</v>
+      </c>
+      <c r="C304">
+        <v>4.0816326530612246</v>
+      </c>
+      <c r="E304">
+        <v>0.68027210884353739</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>310</v>
+      </c>
+      <c r="B305" t="s">
         <v>334</v>
       </c>
-      <c r="C299">
-        <v>0.5477308294209703</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
-      <c r="A300" t="s">
-        <v>303</v>
-      </c>
-      <c r="B300" t="s">
-        <v>338</v>
-      </c>
-      <c r="H300">
-        <v>0.03434065934065934</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
-      <c r="A301" t="s">
-        <v>304</v>
-      </c>
-      <c r="B301" t="s">
+      <c r="C305">
+        <v>3.3355570380253503E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>311</v>
+      </c>
+      <c r="B306" t="s">
+        <v>334</v>
+      </c>
+      <c r="C306">
+        <v>1.262458471760797</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>312</v>
+      </c>
+      <c r="B307" t="s">
+        <v>339</v>
+      </c>
+      <c r="C307">
+        <v>2.4166263895601739E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>313</v>
+      </c>
+      <c r="B308" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>314</v>
+      </c>
+      <c r="B309" t="s">
+        <v>326</v>
+      </c>
+      <c r="C309">
+        <v>0.5069708491761723</v>
+      </c>
+      <c r="F309">
+        <v>0.5069708491761723</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>315</v>
+      </c>
+      <c r="B310" t="s">
+        <v>325</v>
+      </c>
+      <c r="C310">
+        <v>1.207356450933595</v>
+      </c>
+      <c r="E310">
+        <v>2.105854274884178E-2</v>
+      </c>
+      <c r="F310">
+        <v>3.8466938087884319</v>
+      </c>
+      <c r="H310">
+        <v>1.5302541064158359</v>
+      </c>
+      <c r="I310">
+        <v>0.16144882774112029</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>316</v>
+      </c>
+      <c r="B311" t="s">
+        <v>326</v>
+      </c>
+      <c r="C311">
+        <v>0.42270531400966183</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>317</v>
+      </c>
+      <c r="B312" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>318</v>
+      </c>
+      <c r="B313" t="s">
+        <v>345</v>
+      </c>
+      <c r="C313">
+        <v>2.2563176895306861E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>319</v>
+      </c>
+      <c r="B314" t="s">
+        <v>325</v>
+      </c>
+      <c r="C314">
+        <v>2.058383233532934</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>320</v>
+      </c>
+      <c r="B315" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>321</v>
+      </c>
+      <c r="B316" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>322</v>
+      </c>
+      <c r="B317" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="302" spans="1:8">
-      <c r="A302" t="s">
-        <v>305</v>
-      </c>
-      <c r="B302" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
-      <c r="A303" t="s">
-        <v>306</v>
-      </c>
-      <c r="B303" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
-      <c r="A304" t="s">
-        <v>307</v>
-      </c>
-      <c r="B304" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9">
-      <c r="A305" t="s">
-        <v>308</v>
-      </c>
-      <c r="B305" t="s">
-        <v>329</v>
-      </c>
-      <c r="C305">
-        <v>0.2090956612650287</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9">
-      <c r="A306" t="s">
-        <v>309</v>
-      </c>
-      <c r="B306" t="s">
-        <v>333</v>
-      </c>
-      <c r="C306">
-        <v>1.534170153417015</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9">
-      <c r="A307" t="s">
-        <v>310</v>
-      </c>
-      <c r="B307" t="s">
-        <v>332</v>
-      </c>
-      <c r="C307">
-        <v>0.07570022710068131</v>
-      </c>
-      <c r="F307">
-        <v>1.413070905879384</v>
-      </c>
-      <c r="H307">
-        <v>1.816805450416351</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9">
-      <c r="A308" t="s">
-        <v>311</v>
-      </c>
-      <c r="B308" t="s">
-        <v>330</v>
-      </c>
-      <c r="C308">
-        <v>0.09857303792714983</v>
-      </c>
-      <c r="F308">
-        <v>0.07979722117912129</v>
-      </c>
-      <c r="H308">
-        <v>0.4130679684566279</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9">
-      <c r="A309" t="s">
-        <v>312</v>
-      </c>
-      <c r="B309" t="s">
-        <v>328</v>
-      </c>
-      <c r="C309">
-        <v>4.081632653061225</v>
-      </c>
-      <c r="E309">
-        <v>0.6802721088435374</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9">
-      <c r="A310" t="s">
-        <v>313</v>
-      </c>
-      <c r="B310" t="s">
-        <v>337</v>
-      </c>
-      <c r="C310">
-        <v>0.0333555703802535</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9">
-      <c r="A311" t="s">
-        <v>314</v>
-      </c>
-      <c r="B311" t="s">
-        <v>337</v>
-      </c>
-      <c r="C311">
-        <v>1.262458471760797</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9">
-      <c r="A312" t="s">
-        <v>315</v>
-      </c>
-      <c r="B312" t="s">
-        <v>342</v>
-      </c>
-      <c r="C312">
-        <v>0.02416626389560174</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9">
-      <c r="A313" t="s">
-        <v>316</v>
-      </c>
-      <c r="B313" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9">
-      <c r="A314" t="s">
-        <v>317</v>
-      </c>
-      <c r="B314" t="s">
-        <v>329</v>
-      </c>
-      <c r="C314">
-        <v>0.5069708491761723</v>
-      </c>
-      <c r="F314">
-        <v>0.5069708491761723</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9">
-      <c r="A315" t="s">
-        <v>318</v>
-      </c>
-      <c r="B315" t="s">
-        <v>328</v>
-      </c>
-      <c r="C315">
-        <v>1.207356450933595</v>
-      </c>
-      <c r="E315">
-        <v>0.02105854274884178</v>
-      </c>
-      <c r="F315">
-        <v>3.846693808788432</v>
-      </c>
-      <c r="H315">
-        <v>1.530254106415836</v>
-      </c>
-      <c r="I315">
-        <v>0.1614488277411203</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9">
-      <c r="A316" t="s">
-        <v>319</v>
-      </c>
-      <c r="B316" t="s">
-        <v>329</v>
-      </c>
-      <c r="C316">
-        <v>0.4227053140096618</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9">
-      <c r="A317" t="s">
-        <v>320</v>
-      </c>
-      <c r="B317" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9">
+      <c r="C317">
+        <v>8.8770528184642691E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B318" t="s">
-        <v>348</v>
-      </c>
-      <c r="C318">
-        <v>0.02256317689530686</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9">
-      <c r="A319" t="s">
-        <v>322</v>
-      </c>
-      <c r="B319" t="s">
-        <v>328</v>
-      </c>
-      <c r="C319">
-        <v>2.058383233532934</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9">
-      <c r="A320" t="s">
-        <v>323</v>
-      </c>
-      <c r="B320" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
-      <c r="A321" t="s">
-        <v>324</v>
-      </c>
-      <c r="B321" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3">
-      <c r="A322" t="s">
-        <v>325</v>
-      </c>
-      <c r="B322" t="s">
-        <v>331</v>
-      </c>
-      <c r="C322">
-        <v>0.08877052818464269</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3">
-      <c r="A323" t="s">
-        <v>326</v>
-      </c>
-      <c r="B323" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/resources/count_implementation_rate.xlsx
+++ b/resources/count_implementation_rate.xlsx
@@ -1,38 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -339,13 +420,1547 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Projects</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Domains</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>EclipseLink</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>JDBC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>mybatis</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Hibernate</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>jOOQ</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>JPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>tinkerpop</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.3205128205128205</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>flink</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.004452161524420106</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.004452161524420106</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>hadoop</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beam</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.07739938080495357</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ambari</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Infrastructure Management</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4665049449524165</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07464079119238665</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.4011942526590782</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.009330098899048331</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>2.509796603844001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>camel</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>3.825005976571838</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.05677743246473823</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.02689457327277074</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.03585943103036098</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1464260100406407</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>cas</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.08736676568233444</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.471780534684606</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.08736676568233444</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.06989341254586755</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>8.806569980779312</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AsciidocFX</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.3043213633597078</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>async-http-client</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>commafeed</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Collaboration</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>2.144772117962467</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.876675603217158</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>5.630026809651475</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>atmosphere</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.5194805194805194</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>simplenote-android</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Personal Management</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>aws-sdk-java</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.000644928283974822</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>aws-sdk-java-v2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Infrastructure Management</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AxonFramework</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Infrastructure Management</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0.1806684733514002</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>0.4968383017163505</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>4.878048780487805</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>azkaban</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Automation</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0.4751847940865892</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05279831045406547</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>bazel</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.04748338081671415</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.08309591642924977</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>bc-java</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.03458213256484149</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>caffeine</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Infrastructure Management</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>0.7299270072992701</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.4866180048661801</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>bisq</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Cryptocurrency</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>bitcoin-wallet</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Cryptocurrency</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.3937007874015748</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>0.3937007874015748</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>bitcoinj</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Cryptocurrency</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AndroidUtilCode</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>webdrivermanager</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Automation</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>bootique</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HikariCP</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>3.10077519379845</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>YCSB</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>0.4784688995215311</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>0.4784688995215311</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>gatk</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BroadleafCommerce</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Enterprise Resource Planning</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>2.1358723623263</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>0.9264024704065877</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6.330416881111684</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>9.289758106021615</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>btrace</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Program Analysis</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>0.1577287066246057</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BuildCraft</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>glide</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>javacpp-presets</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>0.03268775026558797</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>baritone</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>0.2525252525252525</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>camunda-bpm-platform</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Enterprise Resource Planning</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>0.9215757137694254</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>0.8131550415612577</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02409348271292616</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>0.06625707746054692</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Android-IMSI-Catcher-Detector</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>cgeo</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>0.2925045703839123</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03656307129798903</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>checkstyle</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Program Analysis</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>0.05745475438092502</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>0.01436368859523126</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>libsvm</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>classgraph</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Program Analysis</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>0.4819277108433735</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>0.7228915662650602</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>clojure</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>0.2881844380403458</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.2881844380403458</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>uaa</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>1.277139208173691</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>0.2128565346956152</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.04257130693912303</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>webmagic</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Artificial Intelligence </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>0.6451612903225806</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>spring-boot-admin</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>0.08710801393728224</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>0.2613240418118467</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>gnucash-android</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Finances</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Recaf</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Program Analysis</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>schema-registry</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>0.2042900919305414</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ksql</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>0.00415472184137272</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>connectbot</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>crate</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>0.0177210703526493</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>cryptomator</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>File Management</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>0.4511278195488722</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>cuba</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Enterprise Resource Planning</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1.367941073307611</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.2104524728165556</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>0.4559803577692038</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.175377060680463</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>5.804980708523325</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>cucumber-jvm</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Program Analysis</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>0.2617801047120419</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>2.181500872600349</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.1745200698080279</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>0.1745200698080279</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>openhtmltopdf</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>0.160427807486631</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>dbeaver</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>0.04436557231588287</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>debezium</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>1.57348510210914</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>0.2343488449949782</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>spotless</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>docker-java</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Infrastructure Management</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>dozer</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Automation</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>0.9725906277630416</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>0.2652519893899204</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Automation</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>metadata-extractor</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>metrics</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>0.3401360544217687</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>dropwizard</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Infrastructure Management</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>0.07861635220125787</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4.481132075471698</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>1.10062893081761</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ebean</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="n">
+        <v>0.04666355576294914</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>0.1166588894073728</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>20.32197853476435</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>eclipse-collections</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>vert.x</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Infrastructure Management</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ehcache3</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>1.878690284487386</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>0.322061191626409</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resources/count_implementation_rate.xlsx
+++ b/resources/count_implementation_rate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,56 +483,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tinkerpop</t>
+          <t>CoreNLP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>0.3205128205128205</v>
+        <v>0.499001996007984</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0.499001996007984</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>flink</t>
+          <t>strimzi-kafka-operator</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>Infrastructure Management</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.004452161524420106</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.004452161524420106</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hadoop</t>
+          <t>swagger-core</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>Software Development</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -546,20 +544,18 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>beam</t>
+          <t>syncthing-android</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>File Management</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>0.07739938080495357</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -567,94 +563,70 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ambari</t>
+          <t>synthea</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Infrastructure Management</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4665049449524165</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.07464079119238665</v>
-      </c>
+          <t>Data Management</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>0.4011942526590782</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.009330098899048331</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>2.509796603844001</v>
+        <v>0.3360215053763441</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>camel</t>
+          <t>AmazeFileManager</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Software Development</t>
+          <t>File Management</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>3.825005976571838</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>0.05677743246473823</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.02689457327277074</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.03585943103036098</v>
-      </c>
+        <v>0.847457627118644</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.1464260100406407</v>
+        <v>0.847457627118644</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cas</t>
+          <t>teammates</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08736676568233444</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.471780534684606</v>
-      </c>
+          <t>Collaboration</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.08736676568233444</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.06989341254586755</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>8.806569980779312</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AsciidocFX</t>
+          <t>NewPipe</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -666,112 +638,136 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>0.3043213633597078</v>
+        <v>0.1905366783105748</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>0.3810733566211496</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>async-http-client</t>
+          <t>FrameworkBenchmarks</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Network</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2025658338960162</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.02700877785280216</v>
+      </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.05401755570560432</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4051316677920324</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1215395003376097</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.066846725185685</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>commafeed</t>
+          <t>testcontainers-java</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Collaboration</t>
+          <t>Software Development</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0.07473841554559044</v>
+      </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>2.144772117962467</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.876675603217158</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>5.630026809651475</v>
+        <v>0.1494768310911809</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>atmosphere</t>
+          <t>onedev</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Network</t>
+          <t>Collaboration</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>0.5194805194805194</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>0.1998800719568259</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.078153108135119</v>
+      </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>3.258045172896262</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>simplenote-android</t>
+          <t>thingsboard</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Personal Management</t>
+          <t xml:space="preserve">Artificial Intelligence </t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>0.09781146839466927</v>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0.1467172025920039</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.4034723071280107</v>
+      </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0.8925296491013571</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>aws-sdk-java</t>
+          <t>tlaplus</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Software Development</t>
+          <t>Program Analysis</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.000644928283974822</v>
+        <v>0.05631687629059508</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -780,194 +776,186 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>aws-sdk-java-v2</t>
+          <t>ArchUnit</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Infrastructure Management</t>
+          <t>Program Analysis</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0.1201201201201201</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>1.501501501501501</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AxonFramework</t>
+          <t>traccar</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Infrastructure Management</t>
+          <t>Network</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>0.1806684733514002</v>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>0.4968383017163505</v>
-      </c>
+      <c r="F16" t="n">
+        <v>0.4614370468029005</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>4.878048780487805</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>azkaban</t>
+          <t>trino</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Automation</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>0.4751847940865892</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.05279831045406547</v>
-      </c>
+        <v>0.01357496775945157</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bazel</t>
+          <t>java-tron</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Software Development</t>
+          <t>Cryptocurrency</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>0.04748338081671415</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.08309591642924977</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bc-java</t>
+          <t>Twitter4J</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.03458213256484149</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.1876172607879925</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>caffeine</t>
+          <t>afwall</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Infrastructure Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>0.7299270072992701</v>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>0.4866180048661801</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>bisq</t>
+          <t>fitnesse</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cryptocurrency</t>
+          <t>Program Analysis</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0.106458481192335</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.035486160397445</v>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>bitcoin-wallet</t>
+          <t>undertow</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cryptocurrency</t>
+          <t>Infrastructure Management</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>0.3937007874015748</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="n">
-        <v>0.3937007874015748</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>bitcoinj</t>
+          <t>UniversalMediaServer</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cryptocurrency</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0.04045307443365696</v>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -975,7 +963,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AndroidUtilCode</t>
+          <t>framework</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -983,29 +971,41 @@
           <t>Software Development</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>0.0197667523225934</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0296501284838901</v>
+      </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>0.05930025696778019</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0395335046451868</v>
+      </c>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>0.0296501284838901</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>webdrivermanager</t>
+          <t>validator</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Automation</t>
+          <t>Software Development</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>1.525658807212205</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1013,7 +1013,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>bootique</t>
+          <t>vavr</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1032,28 +1032,32 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HikariCP</t>
+          <t>modeldb</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t xml:space="preserve">Artificial Intelligence </t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>0.09272137227630968</v>
+      </c>
       <c r="G27" t="n">
-        <v>3.10077519379845</v>
+        <v>1.251738525730181</v>
       </c>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>1.321279554937413</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>YCSB</t>
+          <t>vespa</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1062,21 +1066,23 @@
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
-        <v>0.4784688995215311</v>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>0.4784688995215311</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
+        <v>0.07712898688807224</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.4400889251848827</v>
+      </c>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>0.009073998457420261</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>gatk</t>
+          <t>fastutil</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1087,7 +1093,9 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>0.3610108303249098</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -1095,66 +1103,64 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BroadleafCommerce</t>
+          <t>Saturn</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Enterprise Resource Planning</t>
+          <t>Automation</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>2.1358723623263</v>
+        <v>0.6802721088435374</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>0.9264024704065877</v>
-      </c>
-      <c r="G30" t="n">
-        <v>6.330416881111684</v>
-      </c>
+        <v>4.081632653061225</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="n">
-        <v>9.289758106021615</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>btrace</t>
+          <t>flexmark-java</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Program Analysis</t>
+          <t>Software Development</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="n">
-        <v>0.1577287066246057</v>
-      </c>
+      <c r="F31" t="n">
+        <v>0.03354579000335458</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BuildCraft</t>
+          <t>epubcheck</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>Program Analysis</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>0.9742895805142084</v>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -1162,18 +1168,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>glide</t>
+          <t>dynmap</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Game</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.02188662727073758</v>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -1181,87 +1189,93 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>javacpp-presets</t>
+          <t>wildfly</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Software Development</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+          <t>Infrastructure Management</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1111687541688283</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.007411250277921885</v>
+      </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.5039650188986883</v>
+      </c>
       <c r="G34" t="n">
-        <v>0.03268775026558797</v>
+        <v>1.259912547246721</v>
       </c>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>3.083080115615504</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>baritone</t>
+          <t>Universal-G-Code-Sender</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>Automation</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>0.2054091064703869</v>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="n">
-        <v>0.2525252525252525</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>camunda-bpm-platform</t>
+          <t>xxl-job</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Enterprise Resource Planning</t>
+          <t>Automation</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>0.9215757137694254</v>
+        <v>0.6968641114982579</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>0.8131550415612577</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.02409348271292616</v>
-      </c>
+        <v>6.968641114982578</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="n">
-        <v>0.06625707746054692</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Android-IMSI-Catcher-Detector</t>
+          <t>yacy_search_server</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Infrastructure Management</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>2.436440677966102</v>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -1269,696 +1283,82 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>cgeo</t>
+          <t>zaproxy</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>0.2925045703839123</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.03656307129798903</v>
-      </c>
+        <v>0.08814455707360071</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>checkstyle</t>
+          <t>maxwell</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Program Analysis</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="n">
-        <v>0.05745475438092502</v>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="n">
-        <v>0.01436368859523126</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>libsvm</t>
+          <t>jeromq</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Infrastructure Management</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="n">
-        <v>1.666666666666667</v>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>classgraph</t>
+          <t>zxing</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Program Analysis</t>
+          <t>Software Development</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="n">
-        <v>0.4819277108433735</v>
-      </c>
+      <c r="F41" t="n">
+        <v>0.1326963906581741</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="n">
-        <v>0.7228915662650602</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>clojure</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Software Development</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="n">
-        <v>0.2881844380403458</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.2881844380403458</v>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>uaa</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
-        <v>1.277139208173691</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="n">
-        <v>0.2128565346956152</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.04257130693912303</v>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>webmagic</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Artificial Intelligence </t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="n">
-        <v>0.6451612903225806</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>spring-boot-admin</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Monitoring</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="n">
-        <v>0.08710801393728224</v>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="n">
-        <v>0.2613240418118467</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>gnucash-android</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Finances</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Recaf</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Program Analysis</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>schema-registry</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Data Management</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="n">
-        <v>0.2042900919305414</v>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>ksql</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Data Management</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="n">
-        <v>0.00415472184137272</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>connectbot</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Network</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>crate</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Data Management</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="n">
-        <v>0.0177210703526493</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>cryptomator</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>File Management</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="n">
-        <v>0.4511278195488722</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>android</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>cuba</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Enterprise Resource Planning</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1.367941073307611</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.2104524728165556</v>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="n">
-        <v>0.4559803577692038</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.175377060680463</v>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="n">
-        <v>5.804980708523325</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>cucumber-jvm</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Program Analysis</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="n">
-        <v>0.2617801047120419</v>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="n">
-        <v>2.181500872600349</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.1745200698080279</v>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="n">
-        <v>0.1745200698080279</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>openhtmltopdf</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Software Development</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="n">
-        <v>0.160427807486631</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>dbeaver</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Data Management</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="n">
-        <v>0.04436557231588287</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>debezium</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Data Management</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="n">
-        <v>1.57348510210914</v>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="n">
-        <v>0.2343488449949782</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>spotless</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Software Development</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>docker-java</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Infrastructure Management</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>dozer</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Automation</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="n">
-        <v>0.9725906277630416</v>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="n">
-        <v>0.2652519893899204</v>
-      </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Automation</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>metadata-extractor</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>metrics</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Monitoring</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="n">
-        <v>0.3401360544217687</v>
-      </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>dropwizard</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Infrastructure Management</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="n">
-        <v>0.07861635220125787</v>
-      </c>
-      <c r="G65" t="n">
-        <v>4.481132075471698</v>
-      </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="n">
-        <v>1.10062893081761</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>ebean</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Data Management</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="n">
-        <v>0.04666355576294914</v>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="n">
-        <v>0.1166588894073728</v>
-      </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="n">
-        <v>20.32197853476435</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>eclipse-collections</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Software Development</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>vert.x</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Infrastructure Management</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>ehcache3</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Data Management</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="n">
-        <v>1.878690284487386</v>
-      </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="n">
-        <v>0.322061191626409</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
